--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_14_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_14_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1073174.886155558</v>
+        <v>1025071.528848812</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12841021.04503322</v>
+        <v>12841021.04503323</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9965189.358251043</v>
+        <v>9965189.35825105</v>
       </c>
     </row>
     <row r="9">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>230.5960966649981</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>261.803016195502</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="H11" t="n">
-        <v>261.803016195502</v>
+        <v>230.5960966649977</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>261.803016195502</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>9.547701085606301</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>126.2800505242307</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>138.8194985258787</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>216.2334520794678</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2570698747121</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1237852853207</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.2553056904791</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>87.66661898541331</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>226.6877436758899</v>
       </c>
       <c r="U13" t="n">
-        <v>261.803016195502</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>76.43801680832853</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.8030161955016</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="E14" t="n">
-        <v>143.8808115994178</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>135.9030365561266</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.615264704955</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="X14" t="n">
-        <v>261.8030161955016</v>
+        <v>17.98083196004278</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>29.98047365259677</v>
       </c>
       <c r="C15" t="n">
-        <v>135.8901124090594</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>126.2800505242307</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>129.7033716908138</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>182.1179451989755</v>
       </c>
       <c r="U15" t="n">
         <v>216.2334520794678</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>25.18179973235615</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2570698747121</v>
+        <v>163.3985142368224</v>
       </c>
       <c r="H16" t="n">
-        <v>149.1237852853207</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>226.6877436758899</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="X16" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>354.8086456611212</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>135.9030365561266</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.615264704955</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.16286616287</v>
       </c>
       <c r="V17" t="n">
-        <v>312.5154550983156</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
         <v>354.8086456611212</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>87.84209763358825</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.8086456611212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>81.83909827150688</v>
       </c>
       <c r="G18" t="n">
         <v>126.2800505242307</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>27.71977406283712</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>211.9445725621181</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>195.9378182409833</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>134.1507332757777</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.495508493361341</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>104.2553056904791</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6075413637124</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.6877436758899</v>
       </c>
       <c r="U19" t="n">
         <v>284.2652381373666</v>
@@ -2064,7 +2064,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>354.8086456611212</v>
       </c>
       <c r="D20" t="n">
-        <v>66.64293333548511</v>
+        <v>354.8086456611212</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>212.615264704955</v>
       </c>
       <c r="U20" t="n">
-        <v>252.16286616287</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>354.8086456611212</v>
+        <v>318.8057994983553</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.8086456611212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,19 +2165,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>58.52586286162681</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>87.72407482226021</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>182.1179451989755</v>
       </c>
       <c r="U21" t="n">
-        <v>53.48513142736198</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>104.2553056904791</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6075413637124</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.6877436758899</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.2652381373666</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>279.6841735037915</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>95.62568193990801</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>8.061421326091342</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
         <v>409.7727371769058</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>87.42202492161002</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.615264704955</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.16286616287</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>223.073404395519</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
         <v>389.6064368699203</v>
@@ -2453,7 +2453,7 @@
         <v>182.1179451989755</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2334520794678</v>
+        <v>216.2334520794683</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6075413637124</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>284.2652381373666</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>64.54468229777508</v>
       </c>
       <c r="W25" t="n">
-        <v>253.8687840890807</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>62.82589733230134</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>34.96682642810899</v>
+        <v>409.7727371769058</v>
       </c>
       <c r="H26" t="n">
         <v>307.2674035814762</v>
       </c>
       <c r="I26" t="n">
-        <v>87.42202492161002</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.16286616287</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696246</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
         <v>126.2800505242307</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>102.4986183961525</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4955084933614782</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>104.2553056904791</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>226.6877436758899</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>284.2652381373666</v>
@@ -2778,7 +2778,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
         <v>219.8148072196457</v>
@@ -2806,7 +2806,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.7727371769058</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>135.9030365561266</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>8.856294779410913</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>124.5930310285523</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.2570698747121</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>89.18280459742421</v>
+        <v>113.4857771819581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>104.2553056904791</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>194.6075413637124</v>
       </c>
       <c r="T31" t="n">
-        <v>226.6877436758899</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2652381373666</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.8148072196457</v>
+        <v>99.96543205953419</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>306.0692112673864</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.7727371769058</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>87.42202492161002</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>252.16286616287</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>98.69540778036071</v>
       </c>
       <c r="W32" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>95.62568193990815</v>
       </c>
       <c r="H34" t="n">
-        <v>149.1237852853207</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>104.2553056904791</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>4.841743054988951</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>226.6877436758899</v>
@@ -3249,10 +3249,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>354.8086456611209</v>
+        <v>354.8086456611212</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>354.8086456611209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>87.84209763358825</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>135.9030365561266</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.615264704955</v>
       </c>
       <c r="U35" t="n">
         <v>252.16286616287</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>81.55175323354786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>11.59783818506554</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>87.72407482226021</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>27.71977406283712</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>84.59272811955987</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>182.1179451989755</v>
       </c>
       <c r="U36" t="n">
         <v>216.2334520794678</v>
@@ -3407,7 +3407,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>113.4857771819581</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6075413637124</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>226.6877436758899</v>
+        <v>114.5229969161094</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2652381373666</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>79.95233310594388</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>219.8148072196457</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>354.8086456611212</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>114.1841754151301</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.2674035814762</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>121.0993546914636</v>
+        <v>135.9030365561266</v>
       </c>
       <c r="T38" t="n">
         <v>212.615264704955</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.16286616287</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>354.8086456611212</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.8086456611212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,22 +3584,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>78.227880832097</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>87.72407482226021</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>162.8013118153647</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>64.01591852681084</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>104.2553056904791</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6075413637124</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>226.6877436758899</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2652381373666</v>
+        <v>37.12423169304641</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
         <v>219.8148072196457</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="H41" t="n">
-        <v>192.3618232339344</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>87.42202492161002</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.615264704955</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.16286616287</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>261.8030161955016</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>261.8030161955016</v>
+        <v>240.2362466976292</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3830,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>50.28865863193385</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>126.2800505242307</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>87.72407482226021</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>27.71977406283712</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>129.7033716908138</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>182.1179451989755</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>216.2334520794678</v>
+        <v>164.4568375184296</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="43">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.93294890611497</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>90.86449064331748</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.2570698747121</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>149.1237852853207</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6075413637124</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>240.2362466976293</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>230.5960966649977</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.16286616287</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>261.8030161955016</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>261.8030161955016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>57.03739147047145</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>10.66088901163678</v>
+        <v>126.2800505242307</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.72407482226021</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>129.7033716908138</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>182.1179451989755</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2334520794678</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="46">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>113.4857771819581</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>104.2553056904791</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6075413637124</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>34.20208895523477</v>
+        <v>5.331221999759566</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>782.7645736754403</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="C11" t="n">
-        <v>782.7645736754403</v>
+        <v>782.7645736754389</v>
       </c>
       <c r="D11" t="n">
-        <v>782.7645736754403</v>
+        <v>782.7645736754389</v>
       </c>
       <c r="E11" t="n">
-        <v>549.8392235087755</v>
+        <v>782.7645736754389</v>
       </c>
       <c r="F11" t="n">
-        <v>285.3917324022078</v>
+        <v>518.3170825688717</v>
       </c>
       <c r="G11" t="n">
-        <v>285.3917324022078</v>
+        <v>253.8695914623045</v>
       </c>
       <c r="H11" t="n">
-        <v>20.94424129564016</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="I11" t="n">
-        <v>20.94424129564016</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="J11" t="n">
-        <v>57.66732249683059</v>
+        <v>57.66732249682953</v>
       </c>
       <c r="K11" t="n">
-        <v>153.9307478155154</v>
+        <v>153.9307478155141</v>
       </c>
       <c r="L11" t="n">
-        <v>303.3367206272604</v>
+        <v>303.3367206272589</v>
       </c>
       <c r="M11" t="n">
-        <v>495.3110707526766</v>
+        <v>495.3110707526749</v>
       </c>
       <c r="N11" t="n">
-        <v>694.1404858739276</v>
+        <v>694.1404858739257</v>
       </c>
       <c r="O11" t="n">
-        <v>871.0545646709544</v>
+        <v>871.0545646709525</v>
       </c>
       <c r="P11" t="n">
-        <v>994.0145746744447</v>
+        <v>994.0145746744429</v>
       </c>
       <c r="Q11" t="n">
-        <v>1047.212064782008</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="R11" t="n">
-        <v>1047.212064782008</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="S11" t="n">
-        <v>1047.212064782008</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="T11" t="n">
-        <v>1047.212064782008</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="U11" t="n">
-        <v>1047.212064782008</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="V11" t="n">
-        <v>1047.212064782008</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="W11" t="n">
-        <v>1047.212064782008</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="X11" t="n">
-        <v>782.7645736754403</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="Y11" t="n">
-        <v>782.7645736754403</v>
+        <v>1047.212064782006</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>466.8756730986598</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="C12" t="n">
-        <v>305.1720003396144</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="D12" t="n">
-        <v>305.1720003396144</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="E12" t="n">
-        <v>158.1439903964857</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="F12" t="n">
-        <v>148.4998478857722</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="G12" t="n">
-        <v>20.94424129564016</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="H12" t="n">
-        <v>20.94424129564016</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="I12" t="n">
-        <v>20.94424129564016</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="J12" t="n">
-        <v>27.52675622822048</v>
+        <v>146.5626477593393</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2781177845542</v>
+        <v>221.314009315673</v>
       </c>
       <c r="L12" t="n">
-        <v>306.3886051335592</v>
+        <v>359.4635045077071</v>
       </c>
       <c r="M12" t="n">
-        <v>483.3300053219062</v>
+        <v>536.404904696054</v>
       </c>
       <c r="N12" t="n">
-        <v>742.5149913554532</v>
+        <v>729.7364412358627</v>
       </c>
       <c r="O12" t="n">
-        <v>901.3219933089701</v>
+        <v>888.5434431893797</v>
       </c>
       <c r="P12" t="n">
-        <v>1013.07049672661</v>
+        <v>1000.291946607019</v>
       </c>
       <c r="Q12" t="n">
-        <v>1047.212064782008</v>
+        <v>1034.433514662417</v>
       </c>
       <c r="R12" t="n">
-        <v>1047.212064782008</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="S12" t="n">
-        <v>1047.212064782008</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="T12" t="n">
-        <v>1047.212064782008</v>
+        <v>906.9903490993004</v>
       </c>
       <c r="U12" t="n">
-        <v>1047.212064782008</v>
+        <v>688.5727207362015</v>
       </c>
       <c r="V12" t="n">
-        <v>818.8164422303419</v>
+        <v>460.1770981845355</v>
       </c>
       <c r="W12" t="n">
-        <v>818.8164422303419</v>
+        <v>218.8612294178455</v>
       </c>
       <c r="X12" t="n">
-        <v>818.8164422303419</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="Y12" t="n">
-        <v>626.2951158799207</v>
+        <v>20.94424129564012</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>339.5107616593097</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="C13" t="n">
-        <v>339.5107616593097</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="D13" t="n">
-        <v>339.5107616593097</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="E13" t="n">
-        <v>339.5107616593097</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="F13" t="n">
-        <v>339.5107616593097</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="G13" t="n">
-        <v>171.5743274424288</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="H13" t="n">
-        <v>20.94424129564016</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="I13" t="n">
-        <v>20.94424129564016</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="J13" t="n">
-        <v>30.21901636691823</v>
+        <v>30.21901636691818</v>
       </c>
       <c r="K13" t="n">
-        <v>38.41379262979754</v>
+        <v>175.7930199153653</v>
       </c>
       <c r="L13" t="n">
-        <v>282.3036864005896</v>
+        <v>419.6829136861573</v>
       </c>
       <c r="M13" t="n">
-        <v>541.4886724341366</v>
+        <v>678.8678997197039</v>
       </c>
       <c r="N13" t="n">
-        <v>800.6736584676835</v>
+        <v>723.6403320207972</v>
       </c>
       <c r="O13" t="n">
-        <v>1035.358486193228</v>
+        <v>824.7526519347242</v>
       </c>
       <c r="P13" t="n">
-        <v>1041.134276414583</v>
+        <v>1004.28188914125</v>
       </c>
       <c r="Q13" t="n">
-        <v>1047.212064782008</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="R13" t="n">
-        <v>941.9036751956654</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="S13" t="n">
-        <v>941.9036751956654</v>
+        <v>958.6599243926997</v>
       </c>
       <c r="T13" t="n">
-        <v>941.9036751956654</v>
+        <v>729.6824055281645</v>
       </c>
       <c r="U13" t="n">
-        <v>677.4561840890977</v>
+        <v>465.2349144215974</v>
       </c>
       <c r="V13" t="n">
-        <v>416.7208796475203</v>
+        <v>204.49960998002</v>
       </c>
       <c r="W13" t="n">
-        <v>416.7208796475203</v>
+        <v>204.49960998002</v>
       </c>
       <c r="X13" t="n">
-        <v>339.5107616593097</v>
+        <v>204.49960998002</v>
       </c>
       <c r="Y13" t="n">
-        <v>339.5107616593097</v>
+        <v>204.49960998002</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>166.2783944263651</v>
+        <v>549.8392235087745</v>
       </c>
       <c r="C14" t="n">
-        <v>166.2783944263651</v>
+        <v>549.8392235087745</v>
       </c>
       <c r="D14" t="n">
-        <v>166.2783944263651</v>
+        <v>285.3917324022073</v>
       </c>
       <c r="E14" t="n">
-        <v>20.94424129564013</v>
+        <v>285.3917324022073</v>
       </c>
       <c r="F14" t="n">
-        <v>20.94424129564013</v>
+        <v>285.3917324022073</v>
       </c>
       <c r="G14" t="n">
-        <v>20.94424129564013</v>
+        <v>285.3917324022073</v>
       </c>
       <c r="H14" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="I14" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="J14" t="n">
-        <v>57.66732249683017</v>
+        <v>57.66732249683008</v>
       </c>
       <c r="K14" t="n">
         <v>153.9307478155146</v>
       </c>
       <c r="L14" t="n">
-        <v>303.3367206272593</v>
+        <v>303.3367206272595</v>
       </c>
       <c r="M14" t="n">
-        <v>495.3110707526753</v>
+        <v>495.3110707526754</v>
       </c>
       <c r="N14" t="n">
-        <v>694.1404858739261</v>
+        <v>694.1404858739257</v>
       </c>
       <c r="O14" t="n">
-        <v>871.0545646709528</v>
+        <v>871.0545646709525</v>
       </c>
       <c r="P14" t="n">
-        <v>994.0145746744431</v>
+        <v>994.0145746744429</v>
       </c>
       <c r="Q14" t="n">
         <v>1047.212064782006</v>
@@ -5305,25 +5305,25 @@
         <v>1047.212064782006</v>
       </c>
       <c r="S14" t="n">
-        <v>909.9362702808684</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="T14" t="n">
-        <v>695.1733766394997</v>
+        <v>832.4491711406374</v>
       </c>
       <c r="U14" t="n">
-        <v>695.1733766394997</v>
+        <v>832.4491711406374</v>
       </c>
       <c r="V14" t="n">
-        <v>695.1733766394997</v>
+        <v>832.4491711406374</v>
       </c>
       <c r="W14" t="n">
-        <v>695.1733766394997</v>
+        <v>568.0016800340702</v>
       </c>
       <c r="X14" t="n">
-        <v>430.7258855329324</v>
+        <v>549.8392235087745</v>
       </c>
       <c r="Y14" t="n">
-        <v>430.7258855329324</v>
+        <v>549.8392235087745</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>297.0456181125588</v>
+        <v>422.0322829456858</v>
       </c>
       <c r="C15" t="n">
-        <v>159.7828783054281</v>
+        <v>422.0322829456858</v>
       </c>
       <c r="D15" t="n">
-        <v>20.94424129564013</v>
+        <v>283.1936459358978</v>
       </c>
       <c r="E15" t="n">
-        <v>20.94424129564013</v>
+        <v>283.1936459358978</v>
       </c>
       <c r="F15" t="n">
-        <v>20.94424129564013</v>
+        <v>148.4998478857722</v>
       </c>
       <c r="G15" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="H15" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="I15" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="J15" t="n">
-        <v>27.52675622822042</v>
+        <v>27.52675622822041</v>
       </c>
       <c r="K15" t="n">
-        <v>133.7145753552325</v>
+        <v>102.2781177845541</v>
       </c>
       <c r="L15" t="n">
-        <v>271.8640705472665</v>
+        <v>240.4276129765881</v>
       </c>
       <c r="M15" t="n">
-        <v>448.8054707356134</v>
+        <v>417.369013164935</v>
       </c>
       <c r="N15" t="n">
-        <v>642.1370072754221</v>
+        <v>610.7005497047437</v>
       </c>
       <c r="O15" t="n">
-        <v>901.3219933089687</v>
+        <v>769.5075516582606</v>
       </c>
       <c r="P15" t="n">
         <v>1013.070496726608</v>
@@ -5384,25 +5384,25 @@
         <v>1047.212064782006</v>
       </c>
       <c r="S15" t="n">
-        <v>916.1985580236085</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="T15" t="n">
-        <v>916.1985580236085</v>
+        <v>863.2545443790005</v>
       </c>
       <c r="U15" t="n">
-        <v>697.7809296605096</v>
+        <v>644.8369160159017</v>
       </c>
       <c r="V15" t="n">
-        <v>697.7809296605096</v>
+        <v>644.8369160159017</v>
       </c>
       <c r="W15" t="n">
-        <v>456.4650608938197</v>
+        <v>644.8369160159017</v>
       </c>
       <c r="X15" t="n">
-        <v>456.4650608938197</v>
+        <v>644.8369160159017</v>
       </c>
       <c r="Y15" t="n">
-        <v>456.4650608938197</v>
+        <v>452.3155896654805</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>364.9469230051239</v>
+        <v>338.4739005494816</v>
       </c>
       <c r="C16" t="n">
-        <v>339.5107616593097</v>
+        <v>338.4739005494816</v>
       </c>
       <c r="D16" t="n">
-        <v>339.5107616593097</v>
+        <v>338.4739005494816</v>
       </c>
       <c r="E16" t="n">
-        <v>339.5107616593097</v>
+        <v>338.4739005494816</v>
       </c>
       <c r="F16" t="n">
-        <v>339.5107616593097</v>
+        <v>185.9932455752588</v>
       </c>
       <c r="G16" t="n">
-        <v>171.5743274424287</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="H16" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="I16" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="J16" t="n">
-        <v>20.94424129564013</v>
+        <v>30.21901636691818</v>
       </c>
       <c r="K16" t="n">
-        <v>29.13901755851942</v>
+        <v>38.41379262979747</v>
       </c>
       <c r="L16" t="n">
-        <v>245.4512991272579</v>
+        <v>282.3036864005895</v>
       </c>
       <c r="M16" t="n">
-        <v>504.6362851608045</v>
+        <v>541.4886724341361</v>
       </c>
       <c r="N16" t="n">
-        <v>763.8212711943511</v>
+        <v>800.6736584676826</v>
       </c>
       <c r="O16" t="n">
-        <v>998.5060989198953</v>
+        <v>1035.358486193227</v>
       </c>
       <c r="P16" t="n">
-        <v>1004.281889141251</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="Q16" t="n">
         <v>1047.212064782006</v>
@@ -5466,22 +5466,22 @@
         <v>1047.212064782006</v>
       </c>
       <c r="T16" t="n">
-        <v>818.2345459174711</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="U16" t="n">
-        <v>818.2345459174711</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="V16" t="n">
-        <v>818.2345459174711</v>
+        <v>786.4767603404287</v>
       </c>
       <c r="W16" t="n">
-        <v>818.2345459174711</v>
+        <v>522.0292692338614</v>
       </c>
       <c r="X16" t="n">
-        <v>586.9820818128469</v>
+        <v>522.0292692338614</v>
       </c>
       <c r="Y16" t="n">
-        <v>364.9469230051239</v>
+        <v>522.0292692338614</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>386.7772630277596</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="C17" t="n">
-        <v>386.7772630277596</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="D17" t="n">
-        <v>386.7772630277596</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="E17" t="n">
         <v>28.3846916528897</v>
@@ -5515,13 +5515,13 @@
         <v>28.3846916528897</v>
       </c>
       <c r="J17" t="n">
-        <v>65.10777285407973</v>
+        <v>117.972487196955</v>
       </c>
       <c r="K17" t="n">
-        <v>373.5221215947334</v>
+        <v>214.2359125156395</v>
       </c>
       <c r="L17" t="n">
-        <v>522.9280944064783</v>
+        <v>363.6418853273844</v>
       </c>
       <c r="M17" t="n">
         <v>714.9024445318944</v>
@@ -5542,25 +5542,25 @@
         <v>1419.234582644485</v>
       </c>
       <c r="S17" t="n">
-        <v>1419.234582644485</v>
+        <v>1281.958788143347</v>
       </c>
       <c r="T17" t="n">
-        <v>1419.234582644485</v>
+        <v>1067.195894501978</v>
       </c>
       <c r="U17" t="n">
-        <v>1419.234582644485</v>
+        <v>812.4859286808974</v>
       </c>
       <c r="V17" t="n">
-        <v>1103.562405777499</v>
+        <v>475.5066545768387</v>
       </c>
       <c r="W17" t="n">
-        <v>745.1698344026295</v>
+        <v>117.1140832019688</v>
       </c>
       <c r="X17" t="n">
-        <v>745.1698344026295</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.7772630277596</v>
+        <v>28.3846916528897</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>183.9400700236653</v>
+        <v>238.6060540728267</v>
       </c>
       <c r="C18" t="n">
-        <v>183.9400700236653</v>
+        <v>238.6060540728267</v>
       </c>
       <c r="D18" t="n">
-        <v>183.9400700236653</v>
+        <v>238.6060540728267</v>
       </c>
       <c r="E18" t="n">
-        <v>183.9400700236653</v>
+        <v>238.6060540728267</v>
       </c>
       <c r="F18" t="n">
-        <v>183.9400700236653</v>
+        <v>155.9402982430217</v>
       </c>
       <c r="G18" t="n">
-        <v>56.38446343353326</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="H18" t="n">
-        <v>56.38446343353326</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="I18" t="n">
         <v>28.3846916528897</v>
       </c>
       <c r="J18" t="n">
-        <v>34.96720658546999</v>
+        <v>197.2463690685762</v>
       </c>
       <c r="K18" t="n">
-        <v>386.22776578998</v>
+        <v>271.9977306249099</v>
       </c>
       <c r="L18" t="n">
-        <v>524.3772609820139</v>
+        <v>410.1472258169439</v>
       </c>
       <c r="M18" t="n">
-        <v>875.6378201865239</v>
+        <v>587.0886260052908</v>
       </c>
       <c r="N18" t="n">
-        <v>1068.969356726333</v>
+        <v>780.4201625450996</v>
       </c>
       <c r="O18" t="n">
-        <v>1227.776358679849</v>
+        <v>1033.832455384577</v>
       </c>
       <c r="P18" t="n">
-        <v>1339.524862097489</v>
+        <v>1385.093014589087</v>
       </c>
       <c r="Q18" t="n">
         <v>1419.234582644485</v>
@@ -5633,13 +5633,13 @@
         <v>788.4638113267142</v>
       </c>
       <c r="W18" t="n">
-        <v>574.3783844962919</v>
+        <v>788.4638113267142</v>
       </c>
       <c r="X18" t="n">
-        <v>376.4613963740865</v>
+        <v>590.5468232045088</v>
       </c>
       <c r="Y18" t="n">
-        <v>183.9400700236653</v>
+        <v>398.0254968540876</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.890482840544</v>
+        <v>28.88520528254762</v>
       </c>
       <c r="C19" t="n">
-        <v>163.890482840544</v>
+        <v>28.88520528254762</v>
       </c>
       <c r="D19" t="n">
-        <v>163.890482840544</v>
+        <v>28.88520528254762</v>
       </c>
       <c r="E19" t="n">
-        <v>28.3846916528897</v>
+        <v>28.88520528254762</v>
       </c>
       <c r="F19" t="n">
-        <v>28.3846916528897</v>
+        <v>28.88520528254762</v>
       </c>
       <c r="G19" t="n">
         <v>28.3846916528897</v>
@@ -5673,16 +5673,16 @@
         <v>28.3846916528897</v>
       </c>
       <c r="J19" t="n">
-        <v>37.65946672416752</v>
+        <v>37.65946672416774</v>
       </c>
       <c r="K19" t="n">
-        <v>183.2334702726146</v>
+        <v>183.2334702726148</v>
       </c>
       <c r="L19" t="n">
-        <v>427.1233640434067</v>
+        <v>427.1233640434069</v>
       </c>
       <c r="M19" t="n">
-        <v>696.1885081917429</v>
+        <v>696.188508191743</v>
       </c>
       <c r="N19" t="n">
         <v>962.0903420716586</v>
@@ -5700,25 +5700,25 @@
         <v>1313.926193058142</v>
       </c>
       <c r="S19" t="n">
-        <v>1117.352918953382</v>
+        <v>1313.926193058142</v>
       </c>
       <c r="T19" t="n">
-        <v>1117.352918953382</v>
+        <v>1084.948674193607</v>
       </c>
       <c r="U19" t="n">
-        <v>830.2163147742242</v>
+        <v>797.8120700144489</v>
       </c>
       <c r="V19" t="n">
-        <v>569.4810103326467</v>
+        <v>537.0767655728714</v>
       </c>
       <c r="W19" t="n">
-        <v>569.4810103326467</v>
+        <v>250.9203640902705</v>
       </c>
       <c r="X19" t="n">
-        <v>569.4810103326467</v>
+        <v>250.9203640902705</v>
       </c>
       <c r="Y19" t="n">
-        <v>347.4458515249238</v>
+        <v>28.88520528254762</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>95.7007859311575</v>
+        <v>745.1698344026295</v>
       </c>
       <c r="C20" t="n">
-        <v>95.7007859311575</v>
+        <v>386.7772630277596</v>
       </c>
       <c r="D20" t="n">
         <v>28.3846916528897</v>
@@ -5752,13 +5752,13 @@
         <v>28.3846916528897</v>
       </c>
       <c r="J20" t="n">
-        <v>270.4036312802142</v>
+        <v>282.7351165805387</v>
       </c>
       <c r="K20" t="n">
-        <v>366.6670565988987</v>
+        <v>378.9985418992232</v>
       </c>
       <c r="L20" t="n">
-        <v>516.0730294106436</v>
+        <v>675.3592384897374</v>
       </c>
       <c r="M20" t="n">
         <v>867.3335886151535</v>
@@ -5785,19 +5785,19 @@
         <v>1067.195894501978</v>
       </c>
       <c r="U20" t="n">
-        <v>812.4859286808974</v>
+        <v>1067.195894501978</v>
       </c>
       <c r="V20" t="n">
-        <v>812.4859286808974</v>
+        <v>1067.195894501978</v>
       </c>
       <c r="W20" t="n">
-        <v>454.0933573060274</v>
+        <v>745.1698344026295</v>
       </c>
       <c r="X20" t="n">
-        <v>454.0933573060274</v>
+        <v>745.1698344026295</v>
       </c>
       <c r="Y20" t="n">
-        <v>95.7007859311575</v>
+        <v>745.1698344026295</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>190.088364411935</v>
+        <v>472.5093722437647</v>
       </c>
       <c r="C21" t="n">
-        <v>28.3846916528897</v>
+        <v>310.8056994847194</v>
       </c>
       <c r="D21" t="n">
-        <v>28.3846916528897</v>
+        <v>251.688666291157</v>
       </c>
       <c r="E21" t="n">
-        <v>28.3846916528897</v>
+        <v>251.688666291157</v>
       </c>
       <c r="F21" t="n">
-        <v>28.3846916528897</v>
+        <v>116.9948682410313</v>
       </c>
       <c r="G21" t="n">
-        <v>28.3846916528897</v>
+        <v>116.9948682410313</v>
       </c>
       <c r="H21" t="n">
         <v>28.3846916528897</v>
@@ -5831,22 +5831,22 @@
         <v>28.3846916528897</v>
       </c>
       <c r="J21" t="n">
-        <v>34.96720658546999</v>
+        <v>197.2463690685762</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7185681418037</v>
+        <v>322.967057862114</v>
       </c>
       <c r="L21" t="n">
-        <v>460.9791273463137</v>
+        <v>461.116553054148</v>
       </c>
       <c r="M21" t="n">
-        <v>637.9205275346607</v>
+        <v>638.0579532424949</v>
       </c>
       <c r="N21" t="n">
-        <v>831.2520640744694</v>
+        <v>831.3894897823036</v>
       </c>
       <c r="O21" t="n">
-        <v>990.0590660279863</v>
+        <v>990.1964917358206</v>
       </c>
       <c r="P21" t="n">
         <v>1101.94499515346</v>
@@ -5864,19 +5864,19 @@
         <v>1104.263555483081</v>
       </c>
       <c r="U21" t="n">
-        <v>1050.238170202918</v>
+        <v>1104.263555483081</v>
       </c>
       <c r="V21" t="n">
-        <v>821.8425476512516</v>
+        <v>1104.263555483081</v>
       </c>
       <c r="W21" t="n">
-        <v>580.5266788845616</v>
+        <v>862.9476867163913</v>
       </c>
       <c r="X21" t="n">
-        <v>382.6096907623562</v>
+        <v>665.0306985941859</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.088364411935</v>
+        <v>472.5093722437647</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>198.0006611912094</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="C22" t="n">
         <v>28.3846916528897</v>
@@ -5910,16 +5910,16 @@
         <v>28.3846916528897</v>
       </c>
       <c r="J22" t="n">
-        <v>37.65946672416775</v>
+        <v>37.65946672416774</v>
       </c>
       <c r="K22" t="n">
-        <v>183.2334702726146</v>
+        <v>183.2334702726148</v>
       </c>
       <c r="L22" t="n">
-        <v>427.1233640434067</v>
+        <v>427.1233640434069</v>
       </c>
       <c r="M22" t="n">
-        <v>696.1885081917429</v>
+        <v>696.188508191743</v>
       </c>
       <c r="N22" t="n">
         <v>962.0903420716586</v>
@@ -5934,28 +5934,28 @@
         <v>1419.234582644485</v>
       </c>
       <c r="R22" t="n">
-        <v>1313.926193058142</v>
+        <v>1419.234582644485</v>
       </c>
       <c r="S22" t="n">
-        <v>1117.352918953382</v>
+        <v>1419.234582644485</v>
       </c>
       <c r="T22" t="n">
-        <v>1117.352918953382</v>
+        <v>1190.257063779949</v>
       </c>
       <c r="U22" t="n">
-        <v>1117.352918953382</v>
+        <v>903.1204596007913</v>
       </c>
       <c r="V22" t="n">
-        <v>1117.352918953382</v>
+        <v>642.3851551592138</v>
       </c>
       <c r="W22" t="n">
-        <v>834.8436527879364</v>
+        <v>356.2287536766129</v>
       </c>
       <c r="X22" t="n">
-        <v>603.5911886833122</v>
+        <v>124.9762895719887</v>
       </c>
       <c r="Y22" t="n">
-        <v>381.5560298755893</v>
+        <v>28.3846916528897</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>945.5615814456733</v>
+        <v>1652.37451105422</v>
       </c>
       <c r="C23" t="n">
-        <v>945.5615814456733</v>
+        <v>1644.231661229885</v>
       </c>
       <c r="D23" t="n">
-        <v>945.5615814456733</v>
+        <v>1271.407696457109</v>
       </c>
       <c r="E23" t="n">
-        <v>550.7758615517801</v>
+        <v>876.6219765632158</v>
       </c>
       <c r="F23" t="n">
-        <v>550.7758615517801</v>
+        <v>462.4707858733861</v>
       </c>
       <c r="G23" t="n">
-        <v>136.8640058175317</v>
+        <v>48.55893013913777</v>
       </c>
       <c r="H23" t="n">
-        <v>136.8640058175317</v>
+        <v>48.55893013913777</v>
       </c>
       <c r="I23" t="n">
         <v>48.55893013913777</v>
       </c>
       <c r="J23" t="n">
-        <v>85.2820113403278</v>
+        <v>302.9093550667867</v>
       </c>
       <c r="K23" t="n">
-        <v>598.7205826381014</v>
+        <v>816.3479263645603</v>
       </c>
       <c r="L23" t="n">
-        <v>1199.637343109931</v>
+        <v>965.7538991763051</v>
       </c>
       <c r="M23" t="n">
-        <v>1391.611693235348</v>
+        <v>1157.728249301721</v>
       </c>
       <c r="N23" t="n">
-        <v>1590.441108356598</v>
+        <v>1356.557664422972</v>
       </c>
       <c r="O23" t="n">
-        <v>1837.634069429137</v>
+        <v>1564.38467644984</v>
       </c>
       <c r="P23" t="n">
-        <v>2374.749016849325</v>
+        <v>2101.499623870028</v>
       </c>
       <c r="Q23" t="n">
         <v>2427.946506956889</v>
@@ -6019,22 +6019,22 @@
         <v>2427.946506956889</v>
       </c>
       <c r="T23" t="n">
-        <v>2213.18361331552</v>
+        <v>2427.946506956889</v>
       </c>
       <c r="U23" t="n">
-        <v>1958.473647494439</v>
+        <v>2427.946506956889</v>
       </c>
       <c r="V23" t="n">
-        <v>1958.473647494439</v>
+        <v>2427.946506956889</v>
       </c>
       <c r="W23" t="n">
-        <v>1958.473647494439</v>
+        <v>2427.946506956889</v>
       </c>
       <c r="X23" t="n">
-        <v>1733.146976387854</v>
+        <v>2045.916366478382</v>
       </c>
       <c r="Y23" t="n">
-        <v>1339.605120963692</v>
+        <v>1652.37451105422</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>874.988602860143</v>
+        <v>874.9886028601426</v>
       </c>
       <c r="C24" t="n">
-        <v>713.2849301010979</v>
+        <v>713.2849301010973</v>
       </c>
       <c r="D24" t="n">
-        <v>574.4462930913101</v>
+        <v>574.4462930913094</v>
       </c>
       <c r="E24" t="n">
-        <v>427.4182831481812</v>
+        <v>427.4182831481806</v>
       </c>
       <c r="F24" t="n">
-        <v>292.7244850980555</v>
+        <v>292.724485098055</v>
       </c>
       <c r="G24" t="n">
-        <v>165.1688785079236</v>
+        <v>165.168878507923</v>
       </c>
       <c r="H24" t="n">
-        <v>76.55870191978147</v>
+        <v>76.55870191978133</v>
       </c>
       <c r="I24" t="n">
         <v>48.55893013913777</v>
       </c>
       <c r="J24" t="n">
-        <v>55.14144507171807</v>
+        <v>217.4206075548242</v>
       </c>
       <c r="K24" t="n">
-        <v>470.2595666632404</v>
+        <v>632.5387291463467</v>
       </c>
       <c r="L24" t="n">
-        <v>608.4090618552744</v>
+        <v>1059.966894126953</v>
       </c>
       <c r="M24" t="n">
-        <v>785.3504620436214</v>
+        <v>1236.9082943153</v>
       </c>
       <c r="N24" t="n">
-        <v>1386.267222515452</v>
+        <v>1430.239830855108</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.416302124663</v>
+        <v>1589.046832808625</v>
       </c>
       <c r="P24" t="n">
-        <v>2381.026388781901</v>
+        <v>2110.656919465864</v>
       </c>
       <c r="Q24" t="n">
         <v>2415.1679568373</v>
@@ -6098,16 +6098,16 @@
         <v>2296.933000198491</v>
       </c>
       <c r="T24" t="n">
-        <v>2112.975479795486</v>
+        <v>2112.975479795485</v>
       </c>
       <c r="U24" t="n">
-        <v>1894.557851432387</v>
+        <v>1894.557851432386</v>
       </c>
       <c r="V24" t="n">
-        <v>1666.162228880721</v>
+        <v>1666.16222888072</v>
       </c>
       <c r="W24" t="n">
-        <v>1424.846360114031</v>
+        <v>1424.84636011403</v>
       </c>
       <c r="X24" t="n">
         <v>1226.929371991825</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>216.4953643560187</v>
+        <v>386.1113338943384</v>
       </c>
       <c r="C25" t="n">
         <v>216.4953643560187</v>
@@ -6174,25 +6174,25 @@
         <v>1439.408821130733</v>
       </c>
       <c r="S25" t="n">
-        <v>1242.835547025973</v>
+        <v>1439.408821130733</v>
       </c>
       <c r="T25" t="n">
-        <v>1242.835547025973</v>
+        <v>1439.408821130733</v>
       </c>
       <c r="U25" t="n">
-        <v>955.6989428468148</v>
+        <v>1152.272216951575</v>
       </c>
       <c r="V25" t="n">
-        <v>694.9636384052374</v>
+        <v>1087.075568165943</v>
       </c>
       <c r="W25" t="n">
-        <v>438.5305231637416</v>
+        <v>800.9191666833425</v>
       </c>
       <c r="X25" t="n">
-        <v>438.5305231637416</v>
+        <v>569.6667025787183</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.4953643560187</v>
+        <v>569.6667025787183</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1673.425816492271</v>
+        <v>1209.126367730786</v>
       </c>
       <c r="C26" t="n">
-        <v>1291.492057825078</v>
+        <v>1145.665865374926</v>
       </c>
       <c r="D26" t="n">
-        <v>1291.492057825078</v>
+        <v>772.84190060215</v>
       </c>
       <c r="E26" t="n">
-        <v>896.7063379311849</v>
+        <v>772.84190060215</v>
       </c>
       <c r="F26" t="n">
-        <v>482.5551472413552</v>
+        <v>772.84190060215</v>
       </c>
       <c r="G26" t="n">
-        <v>447.2351205462956</v>
+        <v>358.9300448679016</v>
       </c>
       <c r="H26" t="n">
-        <v>136.8640058175317</v>
+        <v>48.55893013913777</v>
       </c>
       <c r="I26" t="n">
         <v>48.55893013913777</v>
@@ -6229,22 +6229,22 @@
         <v>302.9093550667867</v>
       </c>
       <c r="K26" t="n">
-        <v>399.1727803854712</v>
+        <v>816.3479263645603</v>
       </c>
       <c r="L26" t="n">
-        <v>548.5787531972161</v>
+        <v>965.7538991763051</v>
       </c>
       <c r="M26" t="n">
-        <v>991.7612999450096</v>
+        <v>1157.728249301721</v>
       </c>
       <c r="N26" t="n">
-        <v>1190.59071506626</v>
+        <v>1356.557664422972</v>
       </c>
       <c r="O26" t="n">
-        <v>1791.50747553809</v>
+        <v>1533.471743219999</v>
       </c>
       <c r="P26" t="n">
-        <v>2328.622422958279</v>
+        <v>2055.373029978982</v>
       </c>
       <c r="Q26" t="n">
         <v>2381.819913065842</v>
@@ -6259,19 +6259,19 @@
         <v>2290.670712455751</v>
       </c>
       <c r="U26" t="n">
-        <v>2035.96074663467</v>
+        <v>2290.670712455751</v>
       </c>
       <c r="V26" t="n">
-        <v>2035.96074663467</v>
+        <v>1953.691438351692</v>
       </c>
       <c r="W26" t="n">
-        <v>1673.425816492271</v>
+        <v>1591.156508209293</v>
       </c>
       <c r="X26" t="n">
-        <v>1673.425816492271</v>
+        <v>1209.126367730786</v>
       </c>
       <c r="Y26" t="n">
-        <v>1673.425816492271</v>
+        <v>1209.126367730786</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>874.9886028601429</v>
+        <v>874.9886028601426</v>
       </c>
       <c r="C27" t="n">
-        <v>713.2849301010976</v>
+        <v>713.2849301010974</v>
       </c>
       <c r="D27" t="n">
-        <v>574.4462930913097</v>
+        <v>574.4462930913096</v>
       </c>
       <c r="E27" t="n">
-        <v>427.4182831481809</v>
+        <v>427.4182831481808</v>
       </c>
       <c r="F27" t="n">
-        <v>292.724485098055</v>
+        <v>292.7244850980551</v>
       </c>
       <c r="G27" t="n">
         <v>165.168878507923</v>
@@ -6308,22 +6308,22 @@
         <v>55.14144507171807</v>
       </c>
       <c r="K27" t="n">
-        <v>129.8928066280518</v>
+        <v>470.2595666632404</v>
       </c>
       <c r="L27" t="n">
-        <v>268.0423018200858</v>
+        <v>1071.176327135071</v>
       </c>
       <c r="M27" t="n">
-        <v>868.9590622919158</v>
+        <v>1248.117727323418</v>
       </c>
       <c r="N27" t="n">
-        <v>1062.290598831725</v>
+        <v>1441.449263863226</v>
       </c>
       <c r="O27" t="n">
-        <v>1663.207359303555</v>
+        <v>1859.416302124663</v>
       </c>
       <c r="P27" t="n">
-        <v>2184.817445960793</v>
+        <v>2381.026388781901</v>
       </c>
       <c r="Q27" t="n">
         <v>2415.1679568373</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.05944376879583</v>
+        <v>48.55893013913777</v>
       </c>
       <c r="C28" t="n">
         <v>48.55893013913777</v>
@@ -6408,28 +6408,28 @@
         <v>1439.408821130733</v>
       </c>
       <c r="R28" t="n">
-        <v>1334.100431544391</v>
+        <v>1439.408821130733</v>
       </c>
       <c r="S28" t="n">
-        <v>1334.100431544391</v>
+        <v>1439.408821130733</v>
       </c>
       <c r="T28" t="n">
-        <v>1105.122912679855</v>
+        <v>1439.408821130733</v>
       </c>
       <c r="U28" t="n">
-        <v>817.9863085006971</v>
+        <v>1152.272216951575</v>
       </c>
       <c r="V28" t="n">
-        <v>557.2510040591196</v>
+        <v>891.5369125099974</v>
       </c>
       <c r="W28" t="n">
-        <v>271.0946025765188</v>
+        <v>605.3805110273966</v>
       </c>
       <c r="X28" t="n">
-        <v>271.0946025765188</v>
+        <v>374.1280469227723</v>
       </c>
       <c r="Y28" t="n">
-        <v>49.05944376879583</v>
+        <v>152.0928881150494</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1239.429599390053</v>
+        <v>1653.341455124302</v>
       </c>
       <c r="C29" t="n">
-        <v>857.4958407228605</v>
+        <v>1271.407696457109</v>
       </c>
       <c r="D29" t="n">
-        <v>857.4958407228605</v>
+        <v>1271.407696457109</v>
       </c>
       <c r="E29" t="n">
-        <v>462.7101208289674</v>
+        <v>876.6219765632158</v>
       </c>
       <c r="F29" t="n">
-        <v>48.55893013913777</v>
+        <v>462.4707858733861</v>
       </c>
       <c r="G29" t="n">
         <v>48.55893013913777</v>
@@ -6469,19 +6469,19 @@
         <v>598.7205826381014</v>
       </c>
       <c r="L29" t="n">
-        <v>748.1265554498463</v>
+        <v>1199.637343109931</v>
       </c>
       <c r="M29" t="n">
-        <v>940.1009055752622</v>
+        <v>1391.611693235348</v>
       </c>
       <c r="N29" t="n">
-        <v>1138.930320696513</v>
+        <v>1650.872246374005</v>
       </c>
       <c r="O29" t="n">
-        <v>1739.847081168343</v>
+        <v>2251.789006845835</v>
       </c>
       <c r="P29" t="n">
-        <v>2101.499623870028</v>
+        <v>2374.749016849325</v>
       </c>
       <c r="Q29" t="n">
         <v>2427.946506956889</v>
@@ -6490,25 +6490,25 @@
         <v>2427.946506956889</v>
       </c>
       <c r="S29" t="n">
-        <v>2290.670712455751</v>
+        <v>2427.946506956889</v>
       </c>
       <c r="T29" t="n">
-        <v>2290.670712455751</v>
+        <v>2427.946506956889</v>
       </c>
       <c r="U29" t="n">
-        <v>2035.96074663467</v>
+        <v>2173.236541135808</v>
       </c>
       <c r="V29" t="n">
-        <v>2035.96074663467</v>
+        <v>2173.236541135808</v>
       </c>
       <c r="W29" t="n">
-        <v>2027.014994332234</v>
+        <v>2173.236541135808</v>
       </c>
       <c r="X29" t="n">
-        <v>2027.014994332234</v>
+        <v>2173.236541135808</v>
       </c>
       <c r="Y29" t="n">
-        <v>1633.473138908072</v>
+        <v>2047.384994642321</v>
       </c>
     </row>
     <row r="30">
@@ -6548,22 +6548,22 @@
         <v>632.5387291463467</v>
       </c>
       <c r="L30" t="n">
-        <v>1233.455489618177</v>
+        <v>1059.966894126952</v>
       </c>
       <c r="M30" t="n">
-        <v>1410.396889806524</v>
+        <v>1236.908294315299</v>
       </c>
       <c r="N30" t="n">
-        <v>1603.728426346332</v>
+        <v>1430.239830855108</v>
       </c>
       <c r="O30" t="n">
-        <v>1762.535428299849</v>
+        <v>1589.046832808625</v>
       </c>
       <c r="P30" t="n">
-        <v>2284.145514957087</v>
+        <v>2110.656919465863</v>
       </c>
       <c r="Q30" t="n">
-        <v>2427.946506956888</v>
+        <v>2415.167956837299</v>
       </c>
       <c r="R30" t="n">
         <v>2427.946506956888</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.642571146637</v>
+        <v>958.3049944430738</v>
       </c>
       <c r="C31" t="n">
-        <v>138.642571146637</v>
+        <v>788.6890249047541</v>
       </c>
       <c r="D31" t="n">
-        <v>138.642571146637</v>
+        <v>635.6171317325168</v>
       </c>
       <c r="E31" t="n">
-        <v>138.642571146637</v>
+        <v>483.6081174938357</v>
       </c>
       <c r="F31" t="n">
-        <v>138.642571146637</v>
+        <v>331.1274625196128</v>
       </c>
       <c r="G31" t="n">
-        <v>138.642571146637</v>
+        <v>163.1910283027318</v>
       </c>
       <c r="H31" t="n">
-        <v>138.642571146637</v>
+        <v>163.1910283027318</v>
       </c>
       <c r="I31" t="n">
         <v>48.55893013913777</v>
@@ -6645,28 +6645,28 @@
         <v>1439.408821130733</v>
       </c>
       <c r="R31" t="n">
-        <v>1334.100431544391</v>
+        <v>1439.408821130733</v>
       </c>
       <c r="S31" t="n">
-        <v>1137.527157439631</v>
+        <v>1242.835547025973</v>
       </c>
       <c r="T31" t="n">
-        <v>908.5496385750954</v>
+        <v>1242.835547025973</v>
       </c>
       <c r="U31" t="n">
-        <v>621.4130343959373</v>
+        <v>1242.835547025973</v>
       </c>
       <c r="V31" t="n">
-        <v>360.6777299543599</v>
+        <v>1242.835547025973</v>
       </c>
       <c r="W31" t="n">
-        <v>360.6777299543599</v>
+        <v>1242.835547025973</v>
       </c>
       <c r="X31" t="n">
-        <v>360.6777299543599</v>
+        <v>1242.835547025973</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.642571146637</v>
+        <v>1141.860363127454</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>739.653508268337</v>
+        <v>964.9270522416098</v>
       </c>
       <c r="C32" t="n">
-        <v>357.7197496011443</v>
+        <v>964.9270522416098</v>
       </c>
       <c r="D32" t="n">
-        <v>357.7197496011443</v>
+        <v>964.9270522416098</v>
       </c>
       <c r="E32" t="n">
-        <v>48.55893013913777</v>
+        <v>964.9270522416098</v>
       </c>
       <c r="F32" t="n">
-        <v>48.55893013913777</v>
+        <v>550.7758615517801</v>
       </c>
       <c r="G32" t="n">
-        <v>48.55893013913777</v>
+        <v>136.8640058175317</v>
       </c>
       <c r="H32" t="n">
-        <v>48.55893013913777</v>
+        <v>136.8640058175317</v>
       </c>
       <c r="I32" t="n">
         <v>48.55893013913777</v>
       </c>
       <c r="J32" t="n">
-        <v>85.2820113403278</v>
+        <v>302.9093550667867</v>
       </c>
       <c r="K32" t="n">
-        <v>181.5454366590123</v>
+        <v>399.1727803854712</v>
       </c>
       <c r="L32" t="n">
-        <v>330.9514094707572</v>
+        <v>548.5787531972161</v>
       </c>
       <c r="M32" t="n">
-        <v>522.9257595961733</v>
+        <v>1149.495513669046</v>
       </c>
       <c r="N32" t="n">
-        <v>917.3413220869631</v>
+        <v>1750.412274140876</v>
       </c>
       <c r="O32" t="n">
-        <v>1518.258082558793</v>
+        <v>1927.326352937903</v>
       </c>
       <c r="P32" t="n">
-        <v>2055.373029978982</v>
+        <v>2374.749016849325</v>
       </c>
       <c r="Q32" t="n">
-        <v>2381.819913065842</v>
+        <v>2427.946506956889</v>
       </c>
       <c r="R32" t="n">
         <v>2427.946506956889</v>
@@ -6736,16 +6736,16 @@
         <v>1821.197852993301</v>
       </c>
       <c r="V32" t="n">
-        <v>1484.218578889243</v>
+        <v>1721.505521902028</v>
       </c>
       <c r="W32" t="n">
-        <v>1121.683648746844</v>
+        <v>1358.970591759629</v>
       </c>
       <c r="X32" t="n">
-        <v>739.653508268337</v>
+        <v>1358.970591759629</v>
       </c>
       <c r="Y32" t="n">
-        <v>739.653508268337</v>
+        <v>1358.970591759629</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>165.1688785079236</v>
       </c>
       <c r="H33" t="n">
-        <v>76.55870191978147</v>
+        <v>76.55870191978133</v>
       </c>
       <c r="I33" t="n">
         <v>48.55893013913777</v>
       </c>
       <c r="J33" t="n">
-        <v>55.14144507171807</v>
+        <v>217.4206075548242</v>
       </c>
       <c r="K33" t="n">
-        <v>470.2595666632404</v>
+        <v>632.5387291463467</v>
       </c>
       <c r="L33" t="n">
-        <v>1071.176327135071</v>
+        <v>1059.966894126953</v>
       </c>
       <c r="M33" t="n">
-        <v>1248.117727323418</v>
+        <v>1236.9082943153</v>
       </c>
       <c r="N33" t="n">
-        <v>1441.449263863226</v>
+        <v>1430.239830855108</v>
       </c>
       <c r="O33" t="n">
-        <v>1601.825382928214</v>
+        <v>1589.046832808625</v>
       </c>
       <c r="P33" t="n">
-        <v>2123.435469585453</v>
+        <v>2110.656919465864</v>
       </c>
       <c r="Q33" t="n">
-        <v>2427.946506956889</v>
+        <v>2415.1679568373</v>
       </c>
       <c r="R33" t="n">
         <v>2427.946506956889</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>368.8049858242461</v>
+        <v>145.1505280582369</v>
       </c>
       <c r="C34" t="n">
-        <v>199.1890162859264</v>
+        <v>145.1505280582369</v>
       </c>
       <c r="D34" t="n">
-        <v>199.1890162859264</v>
+        <v>145.1505280582369</v>
       </c>
       <c r="E34" t="n">
-        <v>199.1890162859264</v>
+        <v>145.1505280582369</v>
       </c>
       <c r="F34" t="n">
-        <v>199.1890162859264</v>
+        <v>145.1505280582369</v>
       </c>
       <c r="G34" t="n">
-        <v>199.1890162859264</v>
+        <v>48.55893013913777</v>
       </c>
       <c r="H34" t="n">
         <v>48.55893013913777</v>
@@ -6882,28 +6882,28 @@
         <v>1439.408821130733</v>
       </c>
       <c r="R34" t="n">
-        <v>1334.100431544391</v>
+        <v>1439.408821130733</v>
       </c>
       <c r="S34" t="n">
-        <v>1329.209781993897</v>
+        <v>1439.408821130733</v>
       </c>
       <c r="T34" t="n">
-        <v>1100.232263129362</v>
+        <v>1210.431302266198</v>
       </c>
       <c r="U34" t="n">
-        <v>813.0956589502034</v>
+        <v>923.2946980870395</v>
       </c>
       <c r="V34" t="n">
-        <v>552.360354508626</v>
+        <v>662.559393645462</v>
       </c>
       <c r="W34" t="n">
-        <v>552.360354508626</v>
+        <v>376.4029921628612</v>
       </c>
       <c r="X34" t="n">
-        <v>552.360354508626</v>
+        <v>145.1505280582369</v>
       </c>
       <c r="Y34" t="n">
-        <v>552.360354508626</v>
+        <v>145.1505280582369</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>745.169834402629</v>
+        <v>475.5066545768387</v>
       </c>
       <c r="C35" t="n">
-        <v>386.7772630277593</v>
+        <v>117.1140832019688</v>
       </c>
       <c r="D35" t="n">
-        <v>386.7772630277593</v>
+        <v>117.1140832019688</v>
       </c>
       <c r="E35" t="n">
-        <v>28.38469165288967</v>
+        <v>117.1140832019688</v>
       </c>
       <c r="F35" t="n">
-        <v>28.38469165288967</v>
+        <v>117.1140832019688</v>
       </c>
       <c r="G35" t="n">
-        <v>28.38469165288967</v>
+        <v>117.1140832019688</v>
       </c>
       <c r="H35" t="n">
-        <v>28.38469165288967</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="I35" t="n">
-        <v>28.38469165288967</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="J35" t="n">
-        <v>174.692706473482</v>
+        <v>128.5661125824366</v>
       </c>
       <c r="K35" t="n">
-        <v>525.9532656779917</v>
+        <v>479.8266717869466</v>
       </c>
       <c r="L35" t="n">
-        <v>675.3592384897365</v>
+        <v>629.2326445986914</v>
       </c>
       <c r="M35" t="n">
-        <v>867.3335886151526</v>
+        <v>821.2069947241074</v>
       </c>
       <c r="N35" t="n">
-        <v>1066.163003736403</v>
+        <v>1020.036409845358</v>
       </c>
       <c r="O35" t="n">
-        <v>1243.07708253343</v>
+        <v>1196.950488642385</v>
       </c>
       <c r="P35" t="n">
-        <v>1366.03709253692</v>
+        <v>1319.910498645875</v>
       </c>
       <c r="Q35" t="n">
-        <v>1419.234582644484</v>
+        <v>1373.107988753439</v>
       </c>
       <c r="R35" t="n">
-        <v>1419.234582644484</v>
+        <v>1419.234582644485</v>
       </c>
       <c r="S35" t="n">
-        <v>1419.234582644484</v>
+        <v>1281.958788143347</v>
       </c>
       <c r="T35" t="n">
-        <v>1419.234582644484</v>
+        <v>1067.195894501978</v>
       </c>
       <c r="U35" t="n">
-        <v>1164.524616823403</v>
+        <v>812.4859286808974</v>
       </c>
       <c r="V35" t="n">
-        <v>827.545342719344</v>
+        <v>475.5066545768387</v>
       </c>
       <c r="W35" t="n">
-        <v>827.545342719344</v>
+        <v>475.5066545768387</v>
       </c>
       <c r="X35" t="n">
-        <v>827.545342719344</v>
+        <v>475.5066545768387</v>
       </c>
       <c r="Y35" t="n">
-        <v>745.169834402629</v>
+        <v>475.5066545768387</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>337.1163743550637</v>
+        <v>156.7096280873976</v>
       </c>
       <c r="C36" t="n">
-        <v>175.4127015960185</v>
+        <v>156.7096280873976</v>
       </c>
       <c r="D36" t="n">
-        <v>175.4127015960185</v>
+        <v>156.7096280873976</v>
       </c>
       <c r="E36" t="n">
-        <v>28.38469165288967</v>
+        <v>156.7096280873976</v>
       </c>
       <c r="F36" t="n">
-        <v>28.38469165288967</v>
+        <v>156.7096280873976</v>
       </c>
       <c r="G36" t="n">
-        <v>28.38469165288967</v>
+        <v>144.9946400216749</v>
       </c>
       <c r="H36" t="n">
-        <v>28.38469165288967</v>
+        <v>56.38446343353326</v>
       </c>
       <c r="I36" t="n">
-        <v>28.38469165288967</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="J36" t="n">
-        <v>180.9811358257118</v>
+        <v>197.2463690685762</v>
       </c>
       <c r="K36" t="n">
-        <v>255.7324973820455</v>
+        <v>353.8244713912813</v>
       </c>
       <c r="L36" t="n">
-        <v>393.8819925740795</v>
+        <v>491.9739665833154</v>
       </c>
       <c r="M36" t="n">
-        <v>570.8233927624265</v>
+        <v>668.9153667716623</v>
       </c>
       <c r="N36" t="n">
-        <v>922.0839519669362</v>
+        <v>862.246903311471</v>
       </c>
       <c r="O36" t="n">
-        <v>1273.344511171446</v>
+        <v>1021.053905264988</v>
       </c>
       <c r="P36" t="n">
-        <v>1385.093014589085</v>
+        <v>1372.314464469498</v>
       </c>
       <c r="Q36" t="n">
-        <v>1419.234582644484</v>
+        <v>1406.456032524896</v>
       </c>
       <c r="R36" t="n">
-        <v>1419.234582644484</v>
+        <v>1419.234582644485</v>
       </c>
       <c r="S36" t="n">
-        <v>1333.787382523716</v>
+        <v>1419.234582644485</v>
       </c>
       <c r="T36" t="n">
-        <v>1333.787382523716</v>
+        <v>1235.277062241479</v>
       </c>
       <c r="U36" t="n">
-        <v>1115.369754160617</v>
+        <v>1016.85943387838</v>
       </c>
       <c r="V36" t="n">
-        <v>886.9741316089512</v>
+        <v>788.4638113267142</v>
       </c>
       <c r="W36" t="n">
-        <v>886.9741316089512</v>
+        <v>547.1479425600243</v>
       </c>
       <c r="X36" t="n">
-        <v>689.0571434867458</v>
+        <v>349.2309544378188</v>
       </c>
       <c r="Y36" t="n">
-        <v>496.5358171363246</v>
+        <v>156.7096280873976</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>143.0167898164837</v>
+        <v>351.0725543634467</v>
       </c>
       <c r="C37" t="n">
-        <v>143.0167898164837</v>
+        <v>181.456584825127</v>
       </c>
       <c r="D37" t="n">
-        <v>143.0167898164837</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="E37" t="n">
-        <v>143.0167898164837</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="F37" t="n">
-        <v>143.0167898164837</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="G37" t="n">
-        <v>143.0167898164837</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="H37" t="n">
-        <v>143.0167898164837</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="I37" t="n">
-        <v>28.38469165288967</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="J37" t="n">
-        <v>37.65946672416773</v>
+        <v>37.65946672416783</v>
       </c>
       <c r="K37" t="n">
-        <v>183.2334702726135</v>
+        <v>183.2334702726149</v>
       </c>
       <c r="L37" t="n">
-        <v>427.1233640434056</v>
+        <v>427.123364043407</v>
       </c>
       <c r="M37" t="n">
-        <v>696.1885081917418</v>
+        <v>696.1885081917432</v>
       </c>
       <c r="N37" t="n">
-        <v>962.0903420716575</v>
+        <v>962.0903420716587</v>
       </c>
       <c r="O37" t="n">
-        <v>1196.775169797202</v>
+        <v>1196.775169797203</v>
       </c>
       <c r="P37" t="n">
-        <v>1376.304407003728</v>
+        <v>1376.304407003729</v>
       </c>
       <c r="Q37" t="n">
-        <v>1419.234582644484</v>
+        <v>1419.234582644485</v>
       </c>
       <c r="R37" t="n">
-        <v>1419.234582644484</v>
+        <v>1419.234582644485</v>
       </c>
       <c r="S37" t="n">
-        <v>1222.661308539724</v>
+        <v>1419.234582644485</v>
       </c>
       <c r="T37" t="n">
-        <v>993.6837896751885</v>
+        <v>1303.554787779728</v>
       </c>
       <c r="U37" t="n">
-        <v>706.5471854960304</v>
+        <v>1303.554787779728</v>
       </c>
       <c r="V37" t="n">
-        <v>445.811881054453</v>
+        <v>1042.81948333815</v>
       </c>
       <c r="W37" t="n">
-        <v>445.811881054453</v>
+        <v>756.6630818555494</v>
       </c>
       <c r="X37" t="n">
-        <v>365.0519486242066</v>
+        <v>756.6630818555494</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.0167898164837</v>
+        <v>534.6279230478265</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>28.3846916528897</v>
+        <v>812.4859286808974</v>
       </c>
       <c r="C38" t="n">
-        <v>28.3846916528897</v>
+        <v>454.0933573060274</v>
       </c>
       <c r="D38" t="n">
-        <v>28.3846916528897</v>
+        <v>454.0933573060274</v>
       </c>
       <c r="E38" t="n">
-        <v>28.3846916528897</v>
+        <v>454.0933573060274</v>
       </c>
       <c r="F38" t="n">
-        <v>28.3846916528897</v>
+        <v>454.0933573060274</v>
       </c>
       <c r="G38" t="n">
-        <v>28.3846916528897</v>
+        <v>338.7558063816535</v>
       </c>
       <c r="H38" t="n">
         <v>28.3846916528897</v>
@@ -7174,25 +7174,25 @@
         <v>28.3846916528897</v>
       </c>
       <c r="J38" t="n">
-        <v>65.10777285407973</v>
+        <v>282.7351165805387</v>
       </c>
       <c r="K38" t="n">
-        <v>320.5404627078526</v>
+        <v>378.9985418992232</v>
       </c>
       <c r="L38" t="n">
-        <v>469.9464355195974</v>
+        <v>528.404514710968</v>
       </c>
       <c r="M38" t="n">
-        <v>821.2069947241074</v>
+        <v>720.3788648363841</v>
       </c>
       <c r="N38" t="n">
-        <v>1020.036409845358</v>
+        <v>919.2082799576349</v>
       </c>
       <c r="O38" t="n">
-        <v>1196.950488642385</v>
+        <v>1096.122358754661</v>
       </c>
       <c r="P38" t="n">
-        <v>1319.910498645875</v>
+        <v>1219.082368758152</v>
       </c>
       <c r="Q38" t="n">
         <v>1373.107988753439</v>
@@ -7201,25 +7201,25 @@
         <v>1419.234582644485</v>
       </c>
       <c r="S38" t="n">
-        <v>1296.912002148057</v>
+        <v>1281.958788143347</v>
       </c>
       <c r="T38" t="n">
-        <v>1082.149108506688</v>
+        <v>1067.195894501978</v>
       </c>
       <c r="U38" t="n">
-        <v>1082.149108506688</v>
+        <v>812.4859286808974</v>
       </c>
       <c r="V38" t="n">
-        <v>745.1698344026295</v>
+        <v>812.4859286808974</v>
       </c>
       <c r="W38" t="n">
-        <v>386.7772630277596</v>
+        <v>812.4859286808974</v>
       </c>
       <c r="X38" t="n">
-        <v>386.7772630277596</v>
+        <v>812.4859286808974</v>
       </c>
       <c r="Y38" t="n">
-        <v>28.3846916528897</v>
+        <v>812.4859286808974</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>416.1344358016264</v>
+        <v>251.688666291157</v>
       </c>
       <c r="C39" t="n">
-        <v>254.4307630425811</v>
+        <v>251.688666291157</v>
       </c>
       <c r="D39" t="n">
-        <v>254.4307630425811</v>
+        <v>251.688666291157</v>
       </c>
       <c r="E39" t="n">
-        <v>107.4027530994523</v>
+        <v>251.688666291157</v>
       </c>
       <c r="F39" t="n">
-        <v>28.3846916528897</v>
+        <v>116.9948682410313</v>
       </c>
       <c r="G39" t="n">
-        <v>28.3846916528897</v>
+        <v>116.9948682410313</v>
       </c>
       <c r="H39" t="n">
         <v>28.3846916528897</v>
@@ -7256,25 +7256,25 @@
         <v>197.2463690685762</v>
       </c>
       <c r="K39" t="n">
-        <v>271.9977306249099</v>
+        <v>322.967057862114</v>
       </c>
       <c r="L39" t="n">
-        <v>410.1472258169439</v>
+        <v>461.116553054148</v>
       </c>
       <c r="M39" t="n">
-        <v>587.0886260052908</v>
+        <v>638.0579532424949</v>
       </c>
       <c r="N39" t="n">
-        <v>780.4201625450996</v>
+        <v>831.3894897823036</v>
       </c>
       <c r="O39" t="n">
-        <v>1131.68072174961</v>
+        <v>990.1964917358206</v>
       </c>
       <c r="P39" t="n">
-        <v>1243.429225167249</v>
+        <v>1101.94499515346</v>
       </c>
       <c r="Q39" t="n">
-        <v>1419.234582644485</v>
+        <v>1406.456032524896</v>
       </c>
       <c r="R39" t="n">
         <v>1419.234582644485</v>
@@ -7295,10 +7295,10 @@
         <v>416.1344358016264</v>
       </c>
       <c r="X39" t="n">
-        <v>416.1344358016264</v>
+        <v>251.688666291157</v>
       </c>
       <c r="Y39" t="n">
-        <v>416.1344358016264</v>
+        <v>251.688666291157</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.0472356193653</v>
+        <v>198.0006611912094</v>
       </c>
       <c r="C40" t="n">
-        <v>93.0472356193653</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="D40" t="n">
-        <v>93.0472356193653</v>
+        <v>28.3846916528897</v>
       </c>
       <c r="E40" t="n">
         <v>28.3846916528897</v>
@@ -7332,19 +7332,19 @@
         <v>28.3846916528897</v>
       </c>
       <c r="J40" t="n">
-        <v>37.65946672416771</v>
+        <v>37.65946672416752</v>
       </c>
       <c r="K40" t="n">
-        <v>183.2334702726148</v>
+        <v>183.2334702726146</v>
       </c>
       <c r="L40" t="n">
-        <v>427.123364043407</v>
+        <v>427.1233640434067</v>
       </c>
       <c r="M40" t="n">
-        <v>696.1885081917433</v>
+        <v>696.1885081917429</v>
       </c>
       <c r="N40" t="n">
-        <v>962.0903420716589</v>
+        <v>962.0903420716586</v>
       </c>
       <c r="O40" t="n">
         <v>1196.775169797203</v>
@@ -7356,28 +7356,28 @@
         <v>1419.234582644485</v>
       </c>
       <c r="R40" t="n">
-        <v>1313.926193058142</v>
+        <v>1419.234582644485</v>
       </c>
       <c r="S40" t="n">
-        <v>1117.352918953382</v>
+        <v>1419.234582644485</v>
       </c>
       <c r="T40" t="n">
-        <v>888.3754000888472</v>
+        <v>1419.234582644485</v>
       </c>
       <c r="U40" t="n">
-        <v>601.2387959096891</v>
+        <v>1381.735358712115</v>
       </c>
       <c r="V40" t="n">
-        <v>601.2387959096891</v>
+        <v>1121.000054270537</v>
       </c>
       <c r="W40" t="n">
-        <v>315.0823944270882</v>
+        <v>834.8436527879364</v>
       </c>
       <c r="X40" t="n">
-        <v>315.0823944270882</v>
+        <v>603.5911886833122</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.0472356193653</v>
+        <v>381.5560298755893</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>303.5541889275032</v>
+        <v>549.8392235087745</v>
       </c>
       <c r="C41" t="n">
-        <v>303.5541889275032</v>
+        <v>549.8392235087745</v>
       </c>
       <c r="D41" t="n">
-        <v>303.5541889275032</v>
+        <v>549.8392235087745</v>
       </c>
       <c r="E41" t="n">
-        <v>303.5541889275032</v>
+        <v>549.8392235087745</v>
       </c>
       <c r="F41" t="n">
-        <v>303.5541889275032</v>
+        <v>285.3917324022073</v>
       </c>
       <c r="G41" t="n">
-        <v>303.5541889275032</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="H41" t="n">
-        <v>109.2493169740341</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="I41" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="J41" t="n">
-        <v>57.66732249683015</v>
+        <v>57.66732249682953</v>
       </c>
       <c r="K41" t="n">
-        <v>153.9307478155147</v>
+        <v>153.9307478155141</v>
       </c>
       <c r="L41" t="n">
-        <v>303.3367206272595</v>
+        <v>303.3367206272589</v>
       </c>
       <c r="M41" t="n">
-        <v>495.3110707526756</v>
+        <v>495.3110707526749</v>
       </c>
       <c r="N41" t="n">
-        <v>694.1404858739264</v>
+        <v>694.1404858739257</v>
       </c>
       <c r="O41" t="n">
-        <v>871.0545646709531</v>
+        <v>871.0545646709525</v>
       </c>
       <c r="P41" t="n">
-        <v>994.0145746744431</v>
+        <v>994.0145746744429</v>
       </c>
       <c r="Q41" t="n">
         <v>1047.212064782006</v>
@@ -7441,22 +7441,22 @@
         <v>1047.212064782006</v>
       </c>
       <c r="T41" t="n">
-        <v>832.4491711406376</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="U41" t="n">
-        <v>832.4491711406376</v>
+        <v>792.5020989609252</v>
       </c>
       <c r="V41" t="n">
-        <v>832.4491711406376</v>
+        <v>792.5020989609252</v>
       </c>
       <c r="W41" t="n">
-        <v>568.0016800340704</v>
+        <v>792.5020989609252</v>
       </c>
       <c r="X41" t="n">
-        <v>303.5541889275032</v>
+        <v>549.8392235087745</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.5541889275032</v>
+        <v>549.8392235087745</v>
       </c>
     </row>
     <row r="42">
@@ -7466,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>315.9064211352986</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="C42" t="n">
-        <v>315.9064211352986</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="D42" t="n">
-        <v>315.9064211352986</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="E42" t="n">
-        <v>315.9064211352986</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="F42" t="n">
-        <v>265.1097962545574</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="G42" t="n">
-        <v>137.5541896644253</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="H42" t="n">
-        <v>48.94401307628368</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="I42" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="J42" t="n">
-        <v>27.52675622822042</v>
+        <v>27.52675622822041</v>
       </c>
       <c r="K42" t="n">
         <v>102.2781177845541</v>
@@ -7517,25 +7517,25 @@
         <v>1047.212064782006</v>
       </c>
       <c r="S42" t="n">
-        <v>916.1985580236085</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="T42" t="n">
-        <v>732.2410376206029</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="U42" t="n">
-        <v>513.8234092575041</v>
+        <v>881.0940470866227</v>
       </c>
       <c r="V42" t="n">
-        <v>513.8234092575041</v>
+        <v>652.6984245349566</v>
       </c>
       <c r="W42" t="n">
-        <v>513.8234092575041</v>
+        <v>411.3825557682667</v>
       </c>
       <c r="X42" t="n">
-        <v>315.9064211352986</v>
+        <v>213.4655676460613</v>
       </c>
       <c r="Y42" t="n">
-        <v>315.9064211352986</v>
+        <v>20.94424129564012</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>491.9914166335325</v>
+        <v>112.7265550767689</v>
       </c>
       <c r="C43" t="n">
-        <v>491.9914166335325</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="D43" t="n">
-        <v>491.9914166335325</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="E43" t="n">
-        <v>491.9914166335325</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="F43" t="n">
-        <v>339.5107616593097</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="G43" t="n">
-        <v>171.5743274424287</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="H43" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="I43" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="J43" t="n">
-        <v>20.94424129564013</v>
+        <v>30.21901636691818</v>
       </c>
       <c r="K43" t="n">
-        <v>166.5182448440872</v>
+        <v>175.7930199153653</v>
       </c>
       <c r="L43" t="n">
-        <v>410.4081386148793</v>
+        <v>419.6829136861573</v>
       </c>
       <c r="M43" t="n">
-        <v>545.2953919080869</v>
+        <v>678.8678997197039</v>
       </c>
       <c r="N43" t="n">
-        <v>590.0678242091802</v>
+        <v>723.6403320207972</v>
       </c>
       <c r="O43" t="n">
-        <v>824.7526519347244</v>
+        <v>958.3251597463415</v>
       </c>
       <c r="P43" t="n">
-        <v>1004.281889141251</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="Q43" t="n">
         <v>1047.212064782006</v>
@@ -7596,25 +7596,25 @@
         <v>1047.212064782006</v>
       </c>
       <c r="S43" t="n">
-        <v>850.6387906772463</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="T43" t="n">
-        <v>850.6387906772463</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="U43" t="n">
-        <v>850.6387906772463</v>
+        <v>782.7645736754389</v>
       </c>
       <c r="V43" t="n">
-        <v>589.9034862356689</v>
+        <v>782.7645736754389</v>
       </c>
       <c r="W43" t="n">
-        <v>589.9034862356689</v>
+        <v>518.3170825688717</v>
       </c>
       <c r="X43" t="n">
-        <v>589.9034862356689</v>
+        <v>518.3170825688717</v>
       </c>
       <c r="Y43" t="n">
-        <v>589.9034862356689</v>
+        <v>296.2819237611487</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>263.6071167477909</v>
+        <v>782.7645736754389</v>
       </c>
       <c r="C44" t="n">
-        <v>263.6071167477909</v>
+        <v>782.7645736754389</v>
       </c>
       <c r="D44" t="n">
-        <v>20.94424129564013</v>
+        <v>782.7645736754389</v>
       </c>
       <c r="E44" t="n">
-        <v>20.94424129564013</v>
+        <v>518.3170825688717</v>
       </c>
       <c r="F44" t="n">
-        <v>20.94424129564013</v>
+        <v>285.3917324022073</v>
       </c>
       <c r="G44" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="H44" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="I44" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="J44" t="n">
-        <v>57.66732249683014</v>
+        <v>57.66732249683015</v>
       </c>
       <c r="K44" t="n">
         <v>153.9307478155147</v>
@@ -7657,19 +7657,19 @@
         <v>303.3367206272595</v>
       </c>
       <c r="M44" t="n">
-        <v>495.3110707526755</v>
+        <v>495.3110707526756</v>
       </c>
       <c r="N44" t="n">
-        <v>694.1404858739261</v>
+        <v>694.1404858739264</v>
       </c>
       <c r="O44" t="n">
-        <v>871.0545646709527</v>
+        <v>871.0545646709531</v>
       </c>
       <c r="P44" t="n">
-        <v>994.0145746744431</v>
+        <v>994.0145746744436</v>
       </c>
       <c r="Q44" t="n">
-        <v>1047.212064782006</v>
+        <v>1047.212064782007</v>
       </c>
       <c r="R44" t="n">
         <v>1047.212064782006</v>
@@ -7681,19 +7681,19 @@
         <v>1047.212064782006</v>
       </c>
       <c r="U44" t="n">
-        <v>792.5020989609254</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="V44" t="n">
-        <v>792.5020989609254</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="W44" t="n">
-        <v>528.0546078543582</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="X44" t="n">
-        <v>528.0546078543582</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="Y44" t="n">
-        <v>263.6071167477909</v>
+        <v>1047.212064782006</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>340.4444987570433</v>
+        <v>429.4173492618894</v>
       </c>
       <c r="C45" t="n">
-        <v>178.740825997998</v>
+        <v>429.4173492618894</v>
       </c>
       <c r="D45" t="n">
-        <v>178.740825997998</v>
+        <v>429.4173492618894</v>
       </c>
       <c r="E45" t="n">
-        <v>31.71281605486919</v>
+        <v>371.8038225240394</v>
       </c>
       <c r="F45" t="n">
-        <v>31.71281605486919</v>
+        <v>237.1100244739138</v>
       </c>
       <c r="G45" t="n">
-        <v>20.94424129564013</v>
+        <v>109.5544178837818</v>
       </c>
       <c r="H45" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="I45" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="J45" t="n">
-        <v>27.52675622822042</v>
+        <v>27.52675622822041</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2781177845541</v>
+        <v>234.0925594352618</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4276129765881</v>
+        <v>372.2420546272958</v>
       </c>
       <c r="M45" t="n">
-        <v>417.369013164935</v>
+        <v>549.1834548156428</v>
       </c>
       <c r="N45" t="n">
-        <v>610.7005497047437</v>
+        <v>742.5149913554515</v>
       </c>
       <c r="O45" t="n">
-        <v>769.5075516582606</v>
+        <v>901.3219933089684</v>
       </c>
       <c r="P45" t="n">
         <v>1013.070496726608</v>
@@ -7754,25 +7754,25 @@
         <v>1047.212064782006</v>
       </c>
       <c r="S45" t="n">
-        <v>916.1985580236085</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="T45" t="n">
-        <v>916.1985580236085</v>
+        <v>863.2545443790005</v>
       </c>
       <c r="U45" t="n">
-        <v>697.7809296605096</v>
+        <v>863.2545443790005</v>
       </c>
       <c r="V45" t="n">
-        <v>697.7809296605096</v>
+        <v>863.2545443790005</v>
       </c>
       <c r="W45" t="n">
-        <v>697.7809296605096</v>
+        <v>621.9386756123106</v>
       </c>
       <c r="X45" t="n">
-        <v>499.8639415383042</v>
+        <v>621.9386756123106</v>
       </c>
       <c r="Y45" t="n">
-        <v>499.8639415383042</v>
+        <v>429.4173492618894</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>305.1923089975538</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="C46" t="n">
-        <v>135.5763394592341</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="D46" t="n">
-        <v>135.5763394592341</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="E46" t="n">
-        <v>135.5763394592341</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="F46" t="n">
-        <v>135.5763394592341</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="G46" t="n">
-        <v>135.5763394592341</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="H46" t="n">
-        <v>135.5763394592341</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="I46" t="n">
-        <v>20.94424129564013</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="J46" t="n">
-        <v>30.21901636691818</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="K46" t="n">
-        <v>38.41379262979747</v>
+        <v>29.13901755851941</v>
       </c>
       <c r="L46" t="n">
-        <v>282.3036864005895</v>
+        <v>273.0289113293115</v>
       </c>
       <c r="M46" t="n">
-        <v>541.4886724341361</v>
+        <v>532.213897362858</v>
       </c>
       <c r="N46" t="n">
-        <v>590.0678242091802</v>
+        <v>791.3988833964045</v>
       </c>
       <c r="O46" t="n">
-        <v>824.7526519347244</v>
+        <v>1026.083711121949</v>
       </c>
       <c r="P46" t="n">
-        <v>1004.281889141251</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="Q46" t="n">
         <v>1047.212064782006</v>
       </c>
       <c r="R46" t="n">
-        <v>941.9036751956638</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="S46" t="n">
-        <v>745.3304010909038</v>
+        <v>1047.212064782006</v>
       </c>
       <c r="T46" t="n">
-        <v>710.7828364896566</v>
+        <v>1041.826992054976</v>
       </c>
       <c r="U46" t="n">
-        <v>710.7828364896566</v>
+        <v>777.379500948409</v>
       </c>
       <c r="V46" t="n">
-        <v>710.7828364896566</v>
+        <v>516.6441965068316</v>
       </c>
       <c r="W46" t="n">
-        <v>710.7828364896566</v>
+        <v>252.1967054002644</v>
       </c>
       <c r="X46" t="n">
-        <v>710.7828364896566</v>
+        <v>20.94424129564012</v>
       </c>
       <c r="Y46" t="n">
-        <v>488.7476776819336</v>
+        <v>20.94424129564012</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>38.83882675301214</v>
+        <v>38.83882675301217</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,19 +8768,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>120.2382742738575</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>66.6272648050211</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>66.51863585226079</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.27054437129404</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L13" t="n">
         <v>211.2171120040207</v>
       </c>
       <c r="M13" t="n">
-        <v>222.082601490573</v>
+        <v>222.0826014905725</v>
       </c>
       <c r="N13" t="n">
-        <v>216.5783371034885</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>211.9541662756472</v>
+        <v>77.03244121340758</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.72121228165189</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>31.75399754613973</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>101.391903111141</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>133.1459006572807</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.3586540515827</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>183.3609380625525</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M16" t="n">
-        <v>222.0826014905726</v>
+        <v>222.0826014905725</v>
       </c>
       <c r="N16" t="n">
         <v>216.5783371034881</v>
@@ -9102,10 +9102,10 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>6.139180169115168</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.9458458910769</v>
+        <v>41.58203211253574</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>53.39870135643969</v>
       </c>
       <c r="K17" t="n">
-        <v>214.2938620423932</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>160.8951606859535</v>
       </c>
       <c r="N17" t="n">
         <v>153.9708526093526</v>
@@ -9242,28 +9242,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>279.3022198466427</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>176.0799586021849</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>95.56089988480815</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>241.9313694816874</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.02843686019966</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>46.27054437129405</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.7271137195401</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K19" t="n">
         <v>138.7668962480483</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>207.3695539657924</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>148.4391149280499</v>
       </c>
       <c r="M20" t="n">
-        <v>160.8951606859535</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>51.48416892646877</v>
       </c>
       <c r="L21" t="n">
-        <v>215.263701022703</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1388138462972393</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9561,7 +9561,7 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
-        <v>138.7668962480481</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L22" t="n">
         <v>211.2171120040207</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>456.0715026869547</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>70.98876997526446</v>
+        <v>31.22518508064732</v>
       </c>
       <c r="P23" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>38.83882675301217</v>
@@ -9716,28 +9716,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>292.2006765541131</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>411.702246395981</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>317.5172501572672</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9877,25 +9877,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>253.7456531539166</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>428.2855370452558</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>418.3383206229274</v>
+        <v>402.9709866217098</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9956,25 +9956,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>467.441682100804</v>
       </c>
       <c r="M27" t="n">
-        <v>428.2579396802859</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>446.5755136548617</v>
+        <v>261.7778144524442</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>198.190851334453</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10117,22 +10117,22 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>456.0715026869547</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>61.04155355293608</v>
       </c>
       <c r="O29" t="n">
         <v>428.2855370452558</v>
       </c>
       <c r="P29" t="n">
-        <v>241.1035683820149</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>38.83882675301217</v>
@@ -10196,7 +10196,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>467.441682100804</v>
+        <v>292.2006765541126</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.7670948933359</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
-        <v>46.27054437129405</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,22 +10357,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>413.0731417640545</v>
       </c>
       <c r="N32" t="n">
-        <v>197.5617650197364</v>
+        <v>406.1488336874536</v>
       </c>
       <c r="O32" t="n">
-        <v>428.2855370452558</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>418.3383206229274</v>
+        <v>327.7400544524568</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>85.43134583487716</v>
+        <v>38.83882675301217</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>467.441682100804</v>
+        <v>292.2006765541131</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.584966779263652</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10451,7 +10451,7 @@
         <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
-        <v>46.27054437129405</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>110.6918521408104</v>
+        <v>64.09933305894631</v>
       </c>
       <c r="K35" t="n">
-        <v>257.5728625109345</v>
+        <v>257.5728625109348</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>38.83882675301217</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>147.4888174143857</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>82.65327350138531</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>159.5242653178798</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>194.3975325767603</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>241.9313694816874</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>46.27054437129405</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K37" t="n">
-        <v>138.766896248047</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L37" t="n">
         <v>211.2171120040207</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>160.7770348839276</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>160.8951606859535</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>101.8465958461853</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10904,7 +10904,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>51.48416892646877</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>194.3975325767607</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>143.0947367897348</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
-        <v>46.27054437129405</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72711371954033</v>
+        <v>43.7271137195401</v>
       </c>
       <c r="K40" t="n">
         <v>138.7668962480483</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>133.1459006572809</v>
+        <v>133.1459006572807</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.3586540515827</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
         <v>138.7668962480483</v>
@@ -11226,7 +11226,7 @@
         <v>211.2171120040207</v>
       </c>
       <c r="M43" t="n">
-        <v>96.52933609629082</v>
+        <v>222.0826014905725</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P43" t="n">
-        <v>175.5085323082534</v>
+        <v>83.95062102455489</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.9458458910769</v>
+        <v>41.58203211253574</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>133.1459006572805</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>133.1459006572809</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>43.72711371954033</v>
+        <v>34.3586540515827</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11463,19 +11463,19 @@
         <v>211.2171120040207</v>
       </c>
       <c r="M46" t="n">
-        <v>222.0826014905726</v>
+        <v>222.0826014905725</v>
       </c>
       <c r="N46" t="n">
-        <v>3.845171185808887</v>
+        <v>216.5783371034881</v>
       </c>
       <c r="O46" t="n">
         <v>211.9541662756472</v>
       </c>
       <c r="P46" t="n">
-        <v>175.5085323082534</v>
+        <v>15.50763983707284</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.9458458910769</v>
+        <v>41.58203211253574</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>116.3114048850192</v>
       </c>
       <c r="D11" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>160.2417660299561</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>148.2066625874294</v>
+        <v>148.2066625874298</v>
       </c>
       <c r="G11" t="n">
-        <v>409.7727371769058</v>
+        <v>147.9697209814043</v>
       </c>
       <c r="H11" t="n">
-        <v>45.46438738597425</v>
+        <v>76.67130691647856</v>
       </c>
       <c r="I11" t="n">
-        <v>87.42202492160999</v>
+        <v>87.42202492161002</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>116.4068228782196</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
         <v>389.6064368699203</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>123.7991589840181</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>126.2800505242307</v>
       </c>
       <c r="H12" t="n">
         <v>87.72407482226021</v>
       </c>
       <c r="I12" t="n">
-        <v>27.71977406283711</v>
+        <v>27.71977406283712</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>129.7033716908138</v>
       </c>
       <c r="T12" t="n">
-        <v>182.1179451989755</v>
+        <v>43.29844667309683</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2334520794678</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
@@ -23430,10 +23430,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2570698747121</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.1237852853207</v>
       </c>
       <c r="I13" t="n">
         <v>113.4857771819581</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>104.2553056904791</v>
       </c>
       <c r="S13" t="n">
-        <v>194.6075413637124</v>
+        <v>106.9409223782991</v>
       </c>
       <c r="T13" t="n">
-        <v>226.6877436758899</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>22.46222194186458</v>
+        <v>22.46222194186504</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>152.5019226552495</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
         <v>219.8148072196457</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>128.3000879273374</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>107.2927089295471</v>
       </c>
       <c r="E14" t="n">
-        <v>246.9570510955364</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
         <v>410.0096787829314</v>
@@ -23512,7 +23512,7 @@
         <v>409.7727371769058</v>
       </c>
       <c r="H14" t="n">
-        <v>307.2674035814762</v>
+        <v>45.4643873859747</v>
       </c>
       <c r="I14" t="n">
         <v>87.42202492161002</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>135.9030365561266</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>97.10656464547344</v>
       </c>
       <c r="X14" t="n">
-        <v>116.40682287822</v>
+        <v>360.2290071136788</v>
       </c>
       <c r="Y14" t="n">
         <v>389.6064368699203</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>127.8447747008515</v>
       </c>
       <c r="C15" t="n">
-        <v>24.19652362239543</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23585,10 +23585,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>126.2800505242307</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>87.72407482226021</v>
@@ -23624,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>129.7033716908138</v>
       </c>
       <c r="T15" t="n">
-        <v>182.1179451989755</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,13 +23636,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>142.7380101105803</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
@@ -23664,13 +23664,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.858555637889708</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>149.1237852853207</v>
       </c>
       <c r="I16" t="n">
         <v>113.4857771819581</v>
@@ -23706,22 +23706,22 @@
         <v>194.6075413637124</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>226.6877436758899</v>
       </c>
       <c r="U16" t="n">
         <v>284.2652381373666</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>21.49182127227334</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>36.02921703383299</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
         <v>410.0096787829314</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>135.9030365561266</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.615264704955</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.16286616287</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>21.09402626470251</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>4.100935179853764</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>290.3677414401333</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.79779120879914</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
@@ -23822,7 +23822,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>51.50776179811751</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>87.72407482226021</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>27.71977406283712</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>26.95813751690497</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -23898,13 +23898,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>16.33819082051662</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2570698747121</v>
+        <v>165.7615613813508</v>
       </c>
       <c r="H19" t="n">
         <v>149.1237852853207</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.6075413637124</v>
       </c>
       <c r="T19" t="n">
-        <v>226.6877436758899</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23971,10 +23971,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>23.30577541939948</v>
       </c>
       <c r="D20" t="n">
-        <v>302.4527917895635</v>
+        <v>14.28707946392745</v>
       </c>
       <c r="E20" t="n">
         <v>390.8378626949542</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.16286616287</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>4.100935179853764</v>
+        <v>40.1037813426197</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.79779120879914</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -24053,19 +24053,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>78.92438777806323</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>126.2800505242307</v>
       </c>
       <c r="H21" t="n">
-        <v>87.72407482226021</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>27.71977406283712</v>
@@ -24104,10 +24104,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>162.7483206521059</v>
+        <v>216.2334520794678</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>104.2553056904791</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>194.6075413637124</v>
       </c>
       <c r="T22" t="n">
-        <v>226.6877436758899</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2652381373666</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>3.61066396398337</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>124.1891252797377</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>370.0529997544293</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>307.2674035814762</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>87.42202492161002</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>135.9030365561266</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.615264704955</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.16286616287</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24271,7 +24271,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>155.1364346782026</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -24414,7 +24414,7 @@
         <v>104.2553056904791</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6075413637124</v>
       </c>
       <c r="T25" t="n">
         <v>226.6877436758899</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>193.5832690993865</v>
       </c>
       <c r="W25" t="n">
-        <v>29.42605337869412</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>315.2885237482193</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>374.8059107487968</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>87.42202492161002</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,16 +24499,16 @@
         <v>212.615264704955</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.16286616287</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>389.6064368699203</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>79.2211966013835</v>
       </c>
       <c r="C28" t="n">
-        <v>167.424301349575</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
         <v>151.5411742405149</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>104.2553056904791</v>
       </c>
       <c r="S28" t="n">
         <v>194.6075413637124</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>226.6877436758899</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.7727371769058</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>307.2674035814762</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>135.9030365561266</v>
       </c>
       <c r="T29" t="n">
         <v>212.615264704955</v>
@@ -24742,13 +24742,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>350.0532860615641</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>265.0134058413681</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.2570698747121</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>149.1237852853207</v>
       </c>
       <c r="I31" t="n">
-        <v>24.30297258453386</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>104.2553056904791</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.6877436758899</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.2652381373666</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
@@ -24906,7 +24906,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>119.8493751601115</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>84.76865142756776</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.7727371769058</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.2674035814762</v>
       </c>
       <c r="I32" t="n">
-        <v>87.42202492161002</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>234.9140735826574</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -25089,10 +25089,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.2570698747121</v>
+        <v>70.63138793480398</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>149.1237852853207</v>
       </c>
       <c r="I34" t="n">
         <v>113.4857771819581</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>104.2553056904791</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7657983087234</v>
+        <v>194.6075413637124</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>219.8148072196457</v>
@@ -25156,13 +25156,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>23.30577541939977</v>
+        <v>23.30577541939948</v>
       </c>
       <c r="D35" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>36.02921703383328</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
         <v>410.0096787829314</v>
@@ -25171,7 +25171,7 @@
         <v>409.7727371769058</v>
       </c>
       <c r="H35" t="n">
-        <v>307.2674035814762</v>
+        <v>219.425305947888</v>
       </c>
       <c r="I35" t="n">
         <v>87.42202492161002</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>135.9030365561266</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.615264704955</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>308.0546836363725</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>126.2800505242307</v>
+        <v>114.6822123391652</v>
       </c>
       <c r="H36" t="n">
-        <v>87.72407482226021</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>27.71977406283712</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>45.11064357125395</v>
+        <v>129.7033716908138</v>
       </c>
       <c r="T36" t="n">
-        <v>182.1179451989755</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -25332,7 +25332,7 @@
         <v>149.1237852853207</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>113.4857771819581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>104.2553056904791</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6075413637124</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>112.1647467597804</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.2652381373666</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>148.9876063576341</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>23.30577541939948</v>
       </c>
       <c r="D38" t="n">
         <v>369.0957251250487</v>
@@ -25405,10 +25405,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>409.7727371769058</v>
+        <v>295.5885617617757</v>
       </c>
       <c r="H38" t="n">
-        <v>307.2674035814762</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>87.42202492161002</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>14.80368186466292</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.16286616287</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>4.100935179853764</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>34.79779120879914</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -25472,22 +25472,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>55.1189792375274</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>126.2800505242307</v>
       </c>
       <c r="H39" t="n">
-        <v>87.72407482226021</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>27.71977406283712</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>195.9378182409833</v>
+        <v>33.13650642561862</v>
       </c>
       <c r="Y39" t="n">
         <v>190.5961130869169</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>86.4730055694835</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>104.2553056904791</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6075413637124</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.6877436758899</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>247.1410064443202</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>148.2066625874298</v>
       </c>
       <c r="G41" t="n">
-        <v>409.7727371769058</v>
+        <v>147.9697209814043</v>
       </c>
       <c r="H41" t="n">
-        <v>114.9055803475419</v>
+        <v>307.2674035814762</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>87.42202492161002</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>135.9030365561266</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.615264704955</v>
       </c>
       <c r="U41" t="n">
-        <v>252.16286616287</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>97.10656464547338</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>116.40682287822</v>
+        <v>137.9735923760924</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -25718,16 +25718,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>83.05820143769054</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>126.2800505242307</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>87.72407482226021</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>27.71977406283712</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>129.7033716908138</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>182.1179451989755</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>51.77661456103829</v>
       </c>
       <c r="V42" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.78686609142105</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>77.05531919961902</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -25797,13 +25797,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.2570698747121</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>149.1237852853207</v>
       </c>
       <c r="I43" t="n">
         <v>113.4857771819581</v>
@@ -25836,25 +25836,25 @@
         <v>104.2553056904791</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6075413637124</v>
       </c>
       <c r="T43" t="n">
         <v>226.6877436758899</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2652381373666</v>
+        <v>22.46222194186504</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>21.49182127227334</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>128.3000879273374</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>128.8594784274194</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>129.0348464994527</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>179.4135821179337</v>
       </c>
       <c r="G44" t="n">
-        <v>409.7727371769058</v>
+        <v>147.9697209814043</v>
       </c>
       <c r="H44" t="n">
         <v>307.2674035814762</v>
@@ -25921,19 +25921,19 @@
         <v>212.615264704955</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.16286616287</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>97.10656464547338</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>127.8034206744188</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>88.52033837322602</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>115.619161512594</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.72407482226021</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>27.71977406283712</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>129.7033716908138</v>
       </c>
       <c r="T45" t="n">
-        <v>182.1179451989755</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>216.2334520794678</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -26043,7 +26043,7 @@
         <v>149.1237852853207</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>113.4857771819581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>104.2553056904791</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.6075413637124</v>
       </c>
       <c r="T46" t="n">
-        <v>192.4856547206551</v>
+        <v>221.3565216761303</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2652381373666</v>
+        <v>22.46222194186504</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>21.49182127227334</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>399977.6473987987</v>
+        <v>399977.6473987984</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>646432.0970481099</v>
+        <v>646432.0970481097</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>646432.0970481096</v>
+        <v>646432.0970481099</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>475444.9182574986</v>
+        <v>475444.9182574989</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>399977.6473987983</v>
+        <v>399977.6473987984</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>516966.7262674304</v>
+      </c>
+      <c r="C2" t="n">
         <v>516966.7262674306</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>516966.7262674305</v>
       </c>
-      <c r="D2" t="n">
-        <v>516966.7262674304</v>
-      </c>
       <c r="E2" t="n">
-        <v>243646.8416165486</v>
+        <v>243646.8416165485</v>
       </c>
       <c r="F2" t="n">
         <v>243646.8416165484</v>
@@ -26334,28 +26334,28 @@
         <v>279217.1087416623</v>
       </c>
       <c r="I2" t="n">
+        <v>359809.1263851686</v>
+      </c>
+      <c r="J2" t="n">
         <v>359809.1263851687</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>359809.1263851685</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>359809.1263851686</v>
       </c>
-      <c r="L2" t="n">
-        <v>359809.1263851685</v>
-      </c>
       <c r="M2" t="n">
-        <v>279217.1087416621</v>
+        <v>279217.1087416623</v>
       </c>
       <c r="N2" t="n">
-        <v>279217.1087416623</v>
+        <v>279217.1087416622</v>
       </c>
       <c r="O2" t="n">
         <v>243646.8416165484</v>
       </c>
       <c r="P2" t="n">
-        <v>243646.8416165485</v>
+        <v>243646.8416165483</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>511877.3863621707</v>
+        <v>511877.3863621706</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25491.44795208434</v>
+        <v>25491.44795208437</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2398.597251396559</v>
+        <v>2398.597251396689</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>397070.1574037161</v>
       </c>
       <c r="E4" t="n">
-        <v>12174.51511386799</v>
+        <v>12174.51511386796</v>
       </c>
       <c r="F4" t="n">
         <v>12174.51511386796</v>
       </c>
       <c r="G4" t="n">
-        <v>31073.49200508092</v>
+        <v>31073.49200508093</v>
       </c>
       <c r="H4" t="n">
         <v>31073.49200508092</v>
@@ -26441,7 +26441,7 @@
         <v>73893.1501679931</v>
       </c>
       <c r="J4" t="n">
-        <v>73893.15016799308</v>
+        <v>73893.1501679931</v>
       </c>
       <c r="K4" t="n">
         <v>73893.15016799308</v>
@@ -26450,16 +26450,16 @@
         <v>73893.15016799308</v>
       </c>
       <c r="M4" t="n">
-        <v>31073.49200508087</v>
+        <v>31073.49200508093</v>
       </c>
       <c r="N4" t="n">
-        <v>31073.49200508093</v>
+        <v>31073.49200508094</v>
       </c>
       <c r="O4" t="n">
-        <v>12174.51511386797</v>
+        <v>12174.51511386796</v>
       </c>
       <c r="P4" t="n">
-        <v>12174.51511386797</v>
+        <v>12174.51511386796</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>27686.12696950957</v>
+        <v>27686.12696950954</v>
       </c>
       <c r="F5" t="n">
-        <v>27686.12696950955</v>
+        <v>27686.12696950954</v>
       </c>
       <c r="G5" t="n">
         <v>33340.86924101922</v>
@@ -26502,16 +26502,16 @@
         <v>48673.29049056776</v>
       </c>
       <c r="M5" t="n">
-        <v>33340.8692410192</v>
+        <v>33340.86924101922</v>
       </c>
       <c r="N5" t="n">
         <v>33340.86924101922</v>
       </c>
       <c r="O5" t="n">
-        <v>27686.12696950955</v>
+        <v>27686.12696950954</v>
       </c>
       <c r="P5" t="n">
-        <v>27686.12696950955</v>
+        <v>27686.12696950954</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86268.96886371449</v>
+        <v>86225.2831390424</v>
       </c>
       <c r="C6" t="n">
-        <v>86268.96886371437</v>
+        <v>86225.28313904257</v>
       </c>
       <c r="D6" t="n">
-        <v>86268.96886371431</v>
+        <v>86225.28313904245</v>
       </c>
       <c r="E6" t="n">
-        <v>-308091.1868289997</v>
+        <v>-318257.8312444449</v>
       </c>
       <c r="F6" t="n">
-        <v>203786.199533171</v>
+        <v>193619.5551177255</v>
       </c>
       <c r="G6" t="n">
-        <v>189311.2995434779</v>
+        <v>180462.0724289627</v>
       </c>
       <c r="H6" t="n">
-        <v>214802.7474955622</v>
+        <v>205953.520381047</v>
       </c>
       <c r="I6" t="n">
-        <v>170183.2648203382</v>
+        <v>164318.927248175</v>
       </c>
       <c r="J6" t="n">
-        <v>237242.6857266077</v>
+        <v>231378.3481544447</v>
       </c>
       <c r="K6" t="n">
-        <v>237242.6857266078</v>
+        <v>231378.3481544445</v>
       </c>
       <c r="L6" t="n">
-        <v>237242.6857266077</v>
+        <v>231378.3481544446</v>
       </c>
       <c r="M6" t="n">
-        <v>212404.1502441655</v>
+        <v>203554.9231296503</v>
       </c>
       <c r="N6" t="n">
-        <v>214802.7474955622</v>
+        <v>205953.5203810469</v>
       </c>
       <c r="O6" t="n">
-        <v>203786.1995331709</v>
+        <v>193619.5551177256</v>
       </c>
       <c r="P6" t="n">
-        <v>203786.1995331709</v>
+        <v>193619.5551177255</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>539.8396139827088</v>
+        <v>539.8396139827087</v>
       </c>
       <c r="F3" t="n">
         <v>539.8396139827087</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>261.803016195502</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="F4" t="n">
-        <v>261.8030161955016</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="G4" t="n">
         <v>354.8086456611212</v>
@@ -26822,16 +26822,16 @@
         <v>606.9866267392222</v>
       </c>
       <c r="M4" t="n">
-        <v>354.8086456611209</v>
+        <v>354.8086456611212</v>
       </c>
       <c r="N4" t="n">
         <v>354.8086456611212</v>
       </c>
       <c r="O4" t="n">
-        <v>261.8030161955016</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="P4" t="n">
-        <v>261.8030161955016</v>
+        <v>261.8030161955015</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>539.8396139827088</v>
+        <v>539.8396139827087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>261.8030161955018</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>93.00562946561956</v>
+        <v>93.00562946561968</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.625035117400039</v>
+        <v>9.625035117400557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>261.8030161955018</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>93.00562946561956</v>
+        <v>93.00562946561968</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.170209503448074</v>
+        <v>2.170209503448073</v>
       </c>
       <c r="H11" t="n">
         <v>22.22565807718759</v>
       </c>
       <c r="I11" t="n">
-        <v>83.66700188168195</v>
+        <v>83.66700188168193</v>
       </c>
       <c r="J11" t="n">
         <v>184.1938188432761</v>
       </c>
       <c r="K11" t="n">
-        <v>276.0587871242332</v>
+        <v>276.0587871242331</v>
       </c>
       <c r="L11" t="n">
-        <v>342.4753362153822</v>
+        <v>342.4753362153821</v>
       </c>
       <c r="M11" t="n">
         <v>381.0697994723268</v>
       </c>
       <c r="N11" t="n">
-        <v>387.2359072239988</v>
+        <v>387.2359072239987</v>
       </c>
       <c r="O11" t="n">
-        <v>365.655886474087</v>
+        <v>365.6558864740869</v>
       </c>
       <c r="P11" t="n">
-        <v>312.0788393577126</v>
+        <v>312.0788393577125</v>
       </c>
       <c r="Q11" t="n">
-        <v>234.3582115154784</v>
+        <v>234.3582115154783</v>
       </c>
       <c r="R11" t="n">
         <v>136.3244227209702</v>
       </c>
       <c r="S11" t="n">
-        <v>49.45364905982304</v>
+        <v>49.45364905982302</v>
       </c>
       <c r="T11" t="n">
-        <v>9.500092101343949</v>
+        <v>9.500092101343947</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1736167602758459</v>
+        <v>0.1736167602758458</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.161164452717525</v>
+        <v>1.161164452717524</v>
       </c>
       <c r="H12" t="n">
-        <v>11.21440405650873</v>
+        <v>11.21440405650872</v>
       </c>
       <c r="I12" t="n">
-        <v>39.9786883940025</v>
+        <v>39.97868839400249</v>
       </c>
       <c r="J12" t="n">
-        <v>109.7045766490711</v>
+        <v>109.704576649071</v>
       </c>
       <c r="K12" t="n">
         <v>187.5025949811452</v>
@@ -31864,16 +31864,16 @@
         <v>148.2216238240826</v>
       </c>
       <c r="R12" t="n">
-        <v>72.09405259942669</v>
+        <v>72.09405259942667</v>
       </c>
       <c r="S12" t="n">
-        <v>21.56812042657331</v>
+        <v>21.5681204265733</v>
       </c>
       <c r="T12" t="n">
         <v>4.680307596699143</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07639239820510033</v>
+        <v>0.07639239820510031</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.97348127111636</v>
+        <v>0.9734812711163597</v>
       </c>
       <c r="H13" t="n">
-        <v>8.655133483198188</v>
+        <v>8.655133483198187</v>
       </c>
       <c r="I13" t="n">
         <v>29.27523677139018</v>
       </c>
       <c r="J13" t="n">
-        <v>68.82512586792664</v>
+        <v>68.82512586792663</v>
       </c>
       <c r="K13" t="n">
-        <v>113.1008240442462</v>
+        <v>113.1008240442461</v>
       </c>
       <c r="L13" t="n">
         <v>144.7301155257905</v>
@@ -31931,7 +31931,7 @@
         <v>152.5976141623581</v>
       </c>
       <c r="N13" t="n">
-        <v>148.9691839700155</v>
+        <v>148.9691839700154</v>
       </c>
       <c r="O13" t="n">
         <v>137.5971527574288</v>
@@ -31940,19 +31940,19 @@
         <v>117.738134826655</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.51578171138902</v>
+        <v>81.51578171138901</v>
       </c>
       <c r="R13" t="n">
-        <v>43.7712578812865</v>
+        <v>43.77125788128649</v>
       </c>
       <c r="S13" t="n">
         <v>16.96512360663692</v>
       </c>
       <c r="T13" t="n">
-        <v>4.159419976588082</v>
+        <v>4.159419976588081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05309897842452879</v>
+        <v>0.05309897842452878</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>37.09402141534349</v>
+        <v>37.09402141534283</v>
       </c>
       <c r="K11" t="n">
-        <v>97.23578315018645</v>
+        <v>97.23578315018639</v>
       </c>
       <c r="L11" t="n">
-        <v>150.9151240522676</v>
+        <v>150.9151240522675</v>
       </c>
       <c r="M11" t="n">
-        <v>193.9134849751678</v>
+        <v>193.9134849751677</v>
       </c>
       <c r="N11" t="n">
-        <v>200.8377930517686</v>
+        <v>200.8377930517685</v>
       </c>
       <c r="O11" t="n">
-        <v>178.7010896939665</v>
+        <v>178.7010896939664</v>
       </c>
       <c r="P11" t="n">
-        <v>124.2020303065561</v>
+        <v>124.202030306556</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.73483849248814</v>
+        <v>53.73483849248808</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.649004982404364</v>
+        <v>126.8872792562618</v>
       </c>
       <c r="K12" t="n">
-        <v>75.50642581447852</v>
+        <v>75.50642581447849</v>
       </c>
       <c r="L12" t="n">
-        <v>206.1722094434394</v>
+        <v>139.5449446384182</v>
       </c>
       <c r="M12" t="n">
         <v>178.7286870589363</v>
       </c>
       <c r="N12" t="n">
-        <v>261.803016195502</v>
+        <v>195.2843803432411</v>
       </c>
       <c r="O12" t="n">
         <v>160.4111130843606</v>
@@ -35509,10 +35509,10 @@
         <v>112.8772761794338</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.48643237919013</v>
+        <v>34.48643237919011</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>12.90762638342301</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>9.368459667957644</v>
+        <v>9.36845966795763</v>
       </c>
       <c r="K13" t="n">
-        <v>8.277551780686181</v>
+        <v>147.0444480287345</v>
       </c>
       <c r="L13" t="n">
         <v>246.3534280513051</v>
       </c>
       <c r="M13" t="n">
-        <v>261.803016195502</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="N13" t="n">
-        <v>261.803016195502</v>
+        <v>45.22467909201346</v>
       </c>
       <c r="O13" t="n">
-        <v>237.0553815409538</v>
+        <v>102.1336564787141</v>
       </c>
       <c r="P13" t="n">
-        <v>5.834131536722566</v>
+        <v>181.342663844976</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.139180169116162</v>
+        <v>43.36381377854116</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>6.649004982404335</v>
       </c>
       <c r="K15" t="n">
-        <v>107.2604233606182</v>
+        <v>75.50642581447849</v>
       </c>
       <c r="L15" t="n">
         <v>139.5449446384182</v>
@@ -35740,10 +35740,10 @@
         <v>195.2843803432411</v>
       </c>
       <c r="O15" t="n">
-        <v>261.8030161955016</v>
+        <v>160.4111130843606</v>
       </c>
       <c r="P15" t="n">
-        <v>112.8772761794338</v>
+        <v>246.0231768367144</v>
       </c>
       <c r="Q15" t="n">
         <v>34.48643237919011</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>9.36845966795763</v>
       </c>
       <c r="K16" t="n">
         <v>8.277551780686153</v>
       </c>
       <c r="L16" t="n">
-        <v>218.4972541098369</v>
+        <v>246.3534280513051</v>
       </c>
       <c r="M16" t="n">
-        <v>261.8030161955016</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="N16" t="n">
-        <v>261.8030161955016</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="O16" t="n">
         <v>237.0553815409537</v>
       </c>
       <c r="P16" t="n">
-        <v>5.834131536722538</v>
+        <v>11.97331170583771</v>
       </c>
       <c r="Q16" t="n">
-        <v>43.36381377854116</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>37.09402141534346</v>
+        <v>90.49272277178315</v>
       </c>
       <c r="K17" t="n">
-        <v>311.5296451925796</v>
+        <v>97.23578315018639</v>
       </c>
       <c r="L17" t="n">
         <v>150.9151240522675</v>
       </c>
       <c r="M17" t="n">
-        <v>193.9134849751677</v>
+        <v>354.8086456611212</v>
       </c>
       <c r="N17" t="n">
         <v>354.8086456611212</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.649004982404335</v>
+        <v>170.5673509249358</v>
       </c>
       <c r="K18" t="n">
-        <v>354.8086456611212</v>
+        <v>75.50642581447849</v>
       </c>
       <c r="L18" t="n">
         <v>139.5449446384182</v>
       </c>
       <c r="M18" t="n">
-        <v>354.8086456611212</v>
+        <v>178.7286870589363</v>
       </c>
       <c r="N18" t="n">
         <v>195.2843803432411</v>
       </c>
       <c r="O18" t="n">
-        <v>160.4111130843606</v>
+        <v>255.9720129691687</v>
       </c>
       <c r="P18" t="n">
-        <v>112.8772761794338</v>
+        <v>354.8086456611212</v>
       </c>
       <c r="Q18" t="n">
-        <v>80.51486923938977</v>
+        <v>34.48643237919011</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>9.368459667957394</v>
+        <v>9.36845966795763</v>
       </c>
       <c r="K19" t="n">
         <v>147.0444480287345</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>244.4635753811359</v>
+        <v>256.9196211390394</v>
       </c>
       <c r="K20" t="n">
         <v>97.23578315018639</v>
       </c>
       <c r="L20" t="n">
-        <v>150.9151240522675</v>
+        <v>299.3542389803174</v>
       </c>
       <c r="M20" t="n">
-        <v>354.8086456611212</v>
+        <v>193.9134849751677</v>
       </c>
       <c r="N20" t="n">
         <v>200.8377930517685</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.649004982404335</v>
+        <v>170.5673509249358</v>
       </c>
       <c r="K21" t="n">
-        <v>75.50642581447849</v>
+        <v>126.9905947409473</v>
       </c>
       <c r="L21" t="n">
-        <v>354.8086456611212</v>
+        <v>139.5449446384182</v>
       </c>
       <c r="M21" t="n">
         <v>178.7286870589363</v>
@@ -36217,7 +36217,7 @@
         <v>160.4111130843606</v>
       </c>
       <c r="P21" t="n">
-        <v>113.016090025731</v>
+        <v>112.8772761794338</v>
       </c>
       <c r="Q21" t="n">
         <v>307.5869064357939</v>
@@ -36281,7 +36281,7 @@
         <v>9.36845966795763</v>
       </c>
       <c r="K22" t="n">
-        <v>147.0444480287342</v>
+        <v>147.0444480287345</v>
       </c>
       <c r="L22" t="n">
         <v>246.3534280513051</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>37.09402141534346</v>
+        <v>256.9196211390394</v>
       </c>
       <c r="K23" t="n">
         <v>518.6248194927006</v>
       </c>
       <c r="L23" t="n">
-        <v>606.9866267392222</v>
+        <v>150.9151240522675</v>
       </c>
       <c r="M23" t="n">
         <v>193.9134849751677</v>
@@ -36372,13 +36372,13 @@
         <v>200.8377930517685</v>
       </c>
       <c r="O23" t="n">
-        <v>249.6898596692309</v>
+        <v>209.9262747746137</v>
       </c>
       <c r="P23" t="n">
         <v>542.5403509294835</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.73483849248808</v>
+        <v>329.7443263503642</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6.649004982404335</v>
+        <v>170.5673509249358</v>
       </c>
       <c r="K24" t="n">
         <v>419.3112339308307</v>
       </c>
       <c r="L24" t="n">
-        <v>139.5449446384182</v>
+        <v>431.7456211925313</v>
       </c>
       <c r="M24" t="n">
         <v>178.7286870589363</v>
       </c>
       <c r="N24" t="n">
-        <v>606.9866267392222</v>
+        <v>195.2843803432411</v>
       </c>
       <c r="O24" t="n">
-        <v>477.9283632416277</v>
+        <v>160.4111130843606</v>
       </c>
       <c r="P24" t="n">
         <v>526.8788754113521</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.48643237919011</v>
+        <v>307.5869064357939</v>
       </c>
       <c r="R24" t="n">
         <v>12.90762638342301</v>
@@ -36597,25 +36597,25 @@
         <v>256.9196211390394</v>
       </c>
       <c r="K26" t="n">
-        <v>97.23578315018639</v>
+        <v>518.6248194927006</v>
       </c>
       <c r="L26" t="n">
         <v>150.9151240522675</v>
       </c>
       <c r="M26" t="n">
-        <v>447.6591381290843</v>
+        <v>193.9134849751677</v>
       </c>
       <c r="N26" t="n">
         <v>200.8377930517685</v>
       </c>
       <c r="O26" t="n">
-        <v>606.9866267392222</v>
+        <v>178.7010896939664</v>
       </c>
       <c r="P26" t="n">
-        <v>542.5403509294835</v>
+        <v>527.1730169282658</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.73483849248808</v>
+        <v>329.7443263503642</v>
       </c>
       <c r="R26" t="n">
         <v>46.59251908186499</v>
@@ -36676,25 +36676,25 @@
         <v>6.649004982404335</v>
       </c>
       <c r="K27" t="n">
-        <v>75.50642581447849</v>
+        <v>419.3112339308307</v>
       </c>
       <c r="L27" t="n">
-        <v>139.5449446384182</v>
+        <v>606.9866267392222</v>
       </c>
       <c r="M27" t="n">
-        <v>606.9866267392222</v>
+        <v>178.7286870589363</v>
       </c>
       <c r="N27" t="n">
         <v>195.2843803432411</v>
       </c>
       <c r="O27" t="n">
-        <v>606.9866267392222</v>
+        <v>422.1889275368048</v>
       </c>
       <c r="P27" t="n">
         <v>526.8788754113521</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.6772837136431</v>
+        <v>34.48643237919011</v>
       </c>
       <c r="R27" t="n">
         <v>12.90762638342301</v>
@@ -36837,22 +36837,22 @@
         <v>518.6248194927006</v>
       </c>
       <c r="L29" t="n">
-        <v>150.9151240522675</v>
+        <v>606.9866267392222</v>
       </c>
       <c r="M29" t="n">
         <v>193.9134849751677</v>
       </c>
       <c r="N29" t="n">
-        <v>200.8377930517685</v>
+        <v>261.8793466047046</v>
       </c>
       <c r="O29" t="n">
         <v>606.9866267392222</v>
       </c>
       <c r="P29" t="n">
-        <v>365.3055986885709</v>
+        <v>124.202030306556</v>
       </c>
       <c r="Q29" t="n">
-        <v>329.7443263503642</v>
+        <v>53.73483849248808</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>419.3112339308307</v>
       </c>
       <c r="L30" t="n">
-        <v>606.9866267392222</v>
+        <v>431.7456211925308</v>
       </c>
       <c r="M30" t="n">
         <v>178.7286870589363</v>
@@ -36931,10 +36931,10 @@
         <v>526.8788754113521</v>
       </c>
       <c r="Q30" t="n">
-        <v>145.253527272526</v>
+        <v>307.5869064357939</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>12.90762638342301</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>37.09402141534346</v>
+        <v>256.9196211390394</v>
       </c>
       <c r="K32" t="n">
         <v>97.23578315018639</v>
@@ -37077,22 +37077,22 @@
         <v>150.9151240522675</v>
       </c>
       <c r="M32" t="n">
-        <v>193.9134849751677</v>
+        <v>606.9866267392222</v>
       </c>
       <c r="N32" t="n">
-        <v>398.3995580715049</v>
+        <v>606.9866267392222</v>
       </c>
       <c r="O32" t="n">
-        <v>606.9866267392222</v>
+        <v>178.7010896939664</v>
       </c>
       <c r="P32" t="n">
-        <v>542.5403509294835</v>
+        <v>451.9420847590128</v>
       </c>
       <c r="Q32" t="n">
-        <v>329.7443263503642</v>
+        <v>53.73483849248808</v>
       </c>
       <c r="R32" t="n">
-        <v>46.59251908186499</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6.649004982404335</v>
+        <v>170.5673509249358</v>
       </c>
       <c r="K33" t="n">
         <v>419.3112339308307</v>
       </c>
       <c r="L33" t="n">
-        <v>606.9866267392222</v>
+        <v>431.7456211925313</v>
       </c>
       <c r="M33" t="n">
         <v>178.7286870589363</v>
@@ -37162,7 +37162,7 @@
         <v>195.2843803432411</v>
       </c>
       <c r="O33" t="n">
-        <v>161.9960798636242</v>
+        <v>160.4111130843606</v>
       </c>
       <c r="P33" t="n">
         <v>526.8788754113521</v>
@@ -37171,7 +37171,7 @@
         <v>307.5869064357939</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>12.90762638342301</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>147.7858735561538</v>
+        <v>101.1933544742898</v>
       </c>
       <c r="K35" t="n">
-        <v>354.8086456611209</v>
+        <v>354.8086456611212</v>
       </c>
       <c r="L35" t="n">
         <v>150.9151240522675</v>
@@ -37329,7 +37329,7 @@
         <v>53.73483849248808</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>46.59251908186499</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>154.13782239679</v>
+        <v>170.5673509249358</v>
       </c>
       <c r="K36" t="n">
-        <v>75.50642581447849</v>
+        <v>158.1596993158638</v>
       </c>
       <c r="L36" t="n">
         <v>139.5449446384182</v>
@@ -37396,19 +37396,19 @@
         <v>178.7286870589363</v>
       </c>
       <c r="N36" t="n">
-        <v>354.8086456611209</v>
+        <v>195.2843803432411</v>
       </c>
       <c r="O36" t="n">
-        <v>354.8086456611209</v>
+        <v>160.4111130843606</v>
       </c>
       <c r="P36" t="n">
-        <v>112.8772761794338</v>
+        <v>354.8086456611212</v>
       </c>
       <c r="Q36" t="n">
         <v>34.48643237919011</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>12.90762638342301</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>9.36845966795763</v>
       </c>
       <c r="K37" t="n">
-        <v>147.0444480287331</v>
+        <v>147.0444480287345</v>
       </c>
       <c r="L37" t="n">
         <v>246.3534280513051</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>37.09402141534346</v>
+        <v>256.9196211390394</v>
       </c>
       <c r="K38" t="n">
-        <v>258.012818034114</v>
+        <v>97.23578315018639</v>
       </c>
       <c r="L38" t="n">
         <v>150.9151240522675</v>
       </c>
       <c r="M38" t="n">
-        <v>354.8086456611212</v>
+        <v>193.9134849751677</v>
       </c>
       <c r="N38" t="n">
         <v>200.8377930517685</v>
@@ -37563,7 +37563,7 @@
         <v>124.202030306556</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.73483849248808</v>
+        <v>155.5814343386734</v>
       </c>
       <c r="R38" t="n">
         <v>46.59251908186499</v>
@@ -37624,7 +37624,7 @@
         <v>170.5673509249358</v>
       </c>
       <c r="K39" t="n">
-        <v>75.50642581447849</v>
+        <v>126.9905947409473</v>
       </c>
       <c r="L39" t="n">
         <v>139.5449446384182</v>
@@ -37636,16 +37636,16 @@
         <v>195.2843803432411</v>
       </c>
       <c r="O39" t="n">
-        <v>354.8086456611212</v>
+        <v>160.4111130843606</v>
       </c>
       <c r="P39" t="n">
         <v>112.8772761794338</v>
       </c>
       <c r="Q39" t="n">
-        <v>177.581169168925</v>
+        <v>307.5869064357939</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>12.90762638342301</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>9.36845966795763</v>
+        <v>9.368459667957394</v>
       </c>
       <c r="K40" t="n">
         <v>147.0444480287345</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>37.09402141534346</v>
+        <v>37.09402141534283</v>
       </c>
       <c r="K41" t="n">
         <v>97.23578315018639</v>
@@ -37797,7 +37797,7 @@
         <v>178.7010896939664</v>
       </c>
       <c r="P41" t="n">
-        <v>124.2020303065555</v>
+        <v>124.202030306556</v>
       </c>
       <c r="Q41" t="n">
         <v>53.73483849248808</v>
@@ -37876,7 +37876,7 @@
         <v>160.4111130843606</v>
       </c>
       <c r="P42" t="n">
-        <v>246.0231768367147</v>
+        <v>246.0231768367144</v>
       </c>
       <c r="Q42" t="n">
         <v>34.48643237919011</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>9.36845966795763</v>
       </c>
       <c r="K43" t="n">
         <v>147.0444480287345</v>
@@ -37946,7 +37946,7 @@
         <v>246.3534280513051</v>
       </c>
       <c r="M43" t="n">
-        <v>136.2497508012198</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="N43" t="n">
         <v>45.22467909201346</v>
@@ -37955,10 +37955,10 @@
         <v>237.0553815409537</v>
       </c>
       <c r="P43" t="n">
-        <v>181.342663844976</v>
+        <v>89.78475256127743</v>
       </c>
       <c r="Q43" t="n">
-        <v>43.36381377854116</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>6.649004982404335</v>
       </c>
       <c r="K45" t="n">
-        <v>75.50642581447849</v>
+        <v>208.652326471759</v>
       </c>
       <c r="L45" t="n">
         <v>139.5449446384182</v>
@@ -38113,7 +38113,7 @@
         <v>160.4111130843606</v>
       </c>
       <c r="P45" t="n">
-        <v>246.0231768367147</v>
+        <v>112.8772761794338</v>
       </c>
       <c r="Q45" t="n">
         <v>34.48643237919011</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>9.36845966795763</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>8.277551780686153</v>
@@ -38183,19 +38183,19 @@
         <v>246.3534280513051</v>
       </c>
       <c r="M46" t="n">
-        <v>261.8030161955016</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="N46" t="n">
-        <v>49.06985027782235</v>
+        <v>261.8030161955015</v>
       </c>
       <c r="O46" t="n">
         <v>237.0553815409537</v>
       </c>
       <c r="P46" t="n">
-        <v>181.342663844976</v>
+        <v>21.34177137379538</v>
       </c>
       <c r="Q46" t="n">
-        <v>43.36381377854116</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
